--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +31,6 @@
   </si>
   <si>
     <t>Leave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q&amp;A[Number]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -70,6 +66,22 @@
   </si>
   <si>
     <t>看《操作系统概念》1.1-1.10节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《计算机网络自顶向下》2.1-2.1.3&amp;2.1.4节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A[Number]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +196,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -384,7 +402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,6 +487,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
@@ -479,6 +500,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -498,7 +587,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -780,7 +869,7 @@
   <dimension ref="A1:AZ68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -789,14 +878,14 @@
     <col min="2" max="2" width="16.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -810,7 +899,7 @@
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -824,7 +913,7 @@
     </row>
     <row r="3" spans="1:52" s="13" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -880,13 +969,13 @@
     </row>
     <row r="4" spans="1:52" s="2" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>3</v>
@@ -898,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -948,19 +1037,19 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="9">
         <v>42377.939571759256</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1011,11 +1100,21 @@
       <c r="AZ5" s="17"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9">
+        <v>42377.848043981481</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -59,12 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建议或意见请填写在此处
-1：
-2：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>看《操作系统概念》1.1-1.10节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,6 +76,12 @@
   </si>
   <si>
     <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议或意见请填写在此处
+1：
+2：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,6 +463,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -482,13 +485,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -869,7 +869,7 @@
   <dimension ref="A1:AZ68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -884,36 +884,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:52" s="13" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
-        <v>10</v>
+      <c r="A3" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>3</v>
@@ -1043,13 +1043,13 @@
         <v>42377.939571759256</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1101,19 +1101,19 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="9">
         <v>42377.848043981481</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,18 @@
     <t>建议或意见请填写在此处
 1：
 2：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《计算机网络自顶向下》2.1-2.1.5&amp;2.1.6节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,11 +496,11 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -869,7 +881,7 @@
   <dimension ref="A1:AZ68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -912,17 +924,17 @@
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:52" s="13" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -1164,11 +1176,21 @@
       <c r="AZ6" s="17"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9">
+        <v>42378.768796296295</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,12 +96,36 @@
     <t>看《计算机网络自顶向下》2.1-2.1.5&amp;2.1.6节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>薛雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目困难，没有时间，周六晚上照例去妈妈那儿吃饭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光飞逝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +193,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +245,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,7 +458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,6 +546,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
@@ -512,74 +562,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -599,7 +581,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -881,7 +863,7 @@
   <dimension ref="A1:AZ68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -890,7 +872,7 @@
     <col min="2" max="2" width="16.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="46.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.125" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
@@ -1001,7 +983,9 @@
       <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
@@ -1065,7 +1049,9 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="15"/>
       <c r="K5" s="16"/>
@@ -1129,7 +1115,9 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="15"/>
       <c r="K6" s="16"/>
@@ -1193,7 +1181,9 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="15"/>
       <c r="K7" s="16"/>
@@ -1240,14 +1230,28 @@
       <c r="AZ7" s="17"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9">
+        <v>42378.047766203701</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="15"/>
       <c r="K8" s="16"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目困难，没有时间，周六晚上照例去妈妈那儿吃饭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时光飞逝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,12 +116,32 @@
     <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>项目困难，没有时间，周六晚上照例去妈妈那儿吃饭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web &amp; Http[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《计算机网络自顶向下》2.2-2.2.1节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个问题都有理解，但不清晰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +212,15 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -441,7 +466,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -457,8 +482,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,6 +550,12 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -546,22 +580,88 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8"/>
     <cellStyle name="汇总" xfId="3" builtinId="25"/>
     <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
     <cellStyle name="注释" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -581,7 +681,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -863,60 +963,60 @@
   <dimension ref="A1:AZ68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.25" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:52" s="13" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -984,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="15"/>
@@ -1050,7 +1150,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="15"/>
@@ -1116,7 +1216,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="15"/>
@@ -1182,7 +1282,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="15"/>
@@ -1236,20 +1336,20 @@
       <c r="B8" s="9">
         <v>42378.047766203701</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="5"/>
@@ -1298,12 +1398,22 @@
       <c r="AZ8" s="17"/>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9">
+        <v>42379.955937500003</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -4499,8 +4609,11 @@
     <mergeCell ref="A3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>每个问题都有理解，但不清晰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,6 +560,9 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -579,9 +586,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -963,7 +967,7 @@
   <dimension ref="A1:AZ68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -978,45 +982,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:52" s="13" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -1404,7 +1408,7 @@
       <c r="B9" s="9">
         <v>42379.955937500003</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="5"/>
@@ -1462,8 +1466,12 @@
       <c r="AZ9" s="17"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="9">
+        <v>42380.978622685187</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看《计算机网络自顶向下》2.1-2.1.3&amp;2.1.4节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Q&amp;A[Number]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,10 +86,6 @@
   </si>
   <si>
     <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看《计算机网络自顶向下》2.1-2.1.5&amp;2.1.6节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -138,6 +130,22 @@
   </si>
   <si>
     <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Http Protocol[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《计算机网络自顶向下》2.2-2.2.2节 &amp; 2.2.3节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《计算机网络自顶向下》2.1-2.1.5 &amp; 2.1.6节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《计算机网络自顶向下》2.1-2.1.3 &amp; 2.1.4节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,15 +974,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="25.25" style="3" customWidth="1"/>
@@ -1011,7 +1019,7 @@
     </row>
     <row r="3" spans="1:52" s="13" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -1073,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>3</v>
@@ -1088,7 +1096,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="15"/>
@@ -1143,7 +1151,7 @@
         <v>42377.939571759256</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
@@ -1154,7 +1162,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="15"/>
@@ -1215,12 +1223,12 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="15"/>
@@ -1269,7 +1277,7 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="9">
         <v>42378.768796296295</v>
@@ -1278,15 +1286,15 @@
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="15"/>
@@ -1335,26 +1343,26 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="9">
         <v>42378.047766203701</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="15"/>
@@ -1403,20 +1411,20 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="9">
         <v>42379.955937500003</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1467,14 +1475,18 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="9">
         <v>42380.978622685187</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -4619,9 +4631,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>看《计算机网络自顶向下》2.1-2.1.3 &amp; 2.1.4节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1536,8 +1540,12 @@
       <c r="AZ10" s="17"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="9">
+        <v>42381.982581018521</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看《计算机网络自顶向下》2.2-2.2.2节 &amp; 2.2.3节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>看《计算机网络自顶向下》2.1-2.1.5 &amp; 2.1.6节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,6 +146,18 @@
   </si>
   <si>
     <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《计算机网络自顶向下》2.2-2.2.2节 &amp; 2.2.3节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《计算机网络自顶向下》2.1-2.2.3节 Respond Msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改了一天代码，太累了，睡觉…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,18 +987,19 @@
   <dimension ref="A1:AZ68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="27.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1227,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1293,7 +1302,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1489,7 +1498,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1541,15 +1550,23 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="9">
         <v>42381.982581018521</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,33 @@
     <t>看《计算机网络自顶向下》2.1-2.1.3 &amp; 2.1.4节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-01-12 23:12 Re by xy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天断电没记录，今天工作繁忙未抽出时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只想对自己说坚持，尽管看起
+来没有什么意义。可是不坚持
+下去，就更没有意义了。既然
+选择只有两个，就选更好的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -239,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -595,6 +628,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
@@ -606,74 +645,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -693,7 +664,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -974,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -986,7 +957,8 @@
     <col min="4" max="4" width="6.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="25.25" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="7" max="7" width="27.375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1426,8 +1398,12 @@
       <c r="F9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
@@ -1489,7 +1465,9 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
@@ -1535,15 +1513,27 @@
       <c r="AY10" s="17"/>
       <c r="AZ10" s="17"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+    <row r="11" spans="1:52" ht="54" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9">
+        <v>42381.967719907407</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>35</v>
+      </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="15"/>
       <c r="K11" s="16"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -247,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,12 +302,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,7 +506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,12 +577,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -924,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ68"/>
+  <dimension ref="A1:AZ67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -943,45 +931,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:52" s="13" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -1496,13 +1484,13 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="24"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="22"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="15"/>
       <c r="K11" s="16"/>
@@ -4204,7 +4192,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="15"/>
+      <c r="J61" s="18"/>
       <c r="K61" s="16"/>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
@@ -4358,7 +4346,7 @@
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
-      <c r="B64" s="5"/>
+      <c r="B64" s="6"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -4366,8 +4354,8 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="16"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="17"/>
       <c r="L64" s="17"/>
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
@@ -4412,7 +4400,7 @@
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
-      <c r="B65" s="6"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -4420,7 +4408,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="19"/>
+      <c r="J65" s="16"/>
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
       <c r="M65" s="17"/>
@@ -4519,67 +4507,13 @@
       <c r="AZ66" s="17"/>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A67" s="11"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="17"/>
-      <c r="U67" s="17"/>
-      <c r="V67" s="17"/>
-      <c r="W67" s="17"/>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="17"/>
-      <c r="Z67" s="17"/>
-      <c r="AA67" s="17"/>
-      <c r="AB67" s="17"/>
-      <c r="AC67" s="17"/>
-      <c r="AD67" s="17"/>
-      <c r="AE67" s="17"/>
-      <c r="AF67" s="17"/>
-      <c r="AG67" s="17"/>
-      <c r="AH67" s="17"/>
-      <c r="AI67" s="17"/>
-      <c r="AJ67" s="17"/>
-      <c r="AK67" s="17"/>
-      <c r="AL67" s="17"/>
-      <c r="AM67" s="17"/>
-      <c r="AN67" s="17"/>
-      <c r="AO67" s="17"/>
-      <c r="AP67" s="17"/>
-      <c r="AQ67" s="17"/>
-      <c r="AR67" s="17"/>
-      <c r="AS67" s="17"/>
-      <c r="AT67" s="17"/>
-      <c r="AU67" s="17"/>
-      <c r="AV67" s="17"/>
-      <c r="AW67" s="17"/>
-      <c r="AX67" s="17"/>
-      <c r="AY67" s="17"/>
-      <c r="AZ67" s="17"/>
-    </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看《计算机网络自顶向下》2.2-2.2.2节 &amp; 2.2.3节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>看《计算机网络自顶向下》2.1-2.1.5 &amp; 2.1.6节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,11 +145,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>doing</t>
+    <t>看《计算机网络自顶向下》2.2-2.2.2节 &amp; 2.2.3节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016-01-12 23:12 Re by xy</t>
+    <t>改了一天代码，太累了，睡觉…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -162,6 +158,10 @@
   </si>
   <si>
     <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《计算机网络自顶向下》2.1-2.2.3节 Respond Msg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -604,6 +604,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -628,12 +634,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
@@ -645,6 +645,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -664,7 +732,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -945,62 +1013,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:52" s="13" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -1195,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1261,7 +1329,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1398,12 +1466,8 @@
       <c r="F9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
@@ -1461,13 +1525,11 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
@@ -1515,24 +1577,24 @@
     </row>
     <row r="11" spans="1:52" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="9">
         <v>42381.967719907407</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>35</v>
+      <c r="C11" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="25" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="15"/>
@@ -1579,13 +1641,25 @@
       <c r="AY11" s="17"/>
       <c r="AZ11" s="17"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+    <row r="12" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>42381.982581018521</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Others</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,10 +94,6 @@
   </si>
   <si>
     <t>时光飞逝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>State</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -173,6 +165,42 @@
 来没有什么意义。可是不坚持
 下去，就更没有意义了。既然
 选择只有两个，就选更好的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作繁忙，未抽出时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re:xm 2016-01-13 22:42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,6 +662,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
@@ -645,74 +676,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -732,7 +695,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1013,25 +976,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="27.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1045,7 +1008,7 @@
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1059,7 +1022,7 @@
     </row>
     <row r="3" spans="1:52" s="13" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -1115,13 +1078,13 @@
     </row>
     <row r="4" spans="1:52" s="2" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>3</v>
@@ -1133,12 +1096,14 @@
         <v>2</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
       <c r="L4" s="17"/>
@@ -1185,24 +1150,24 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="9">
         <v>42377.939571759256</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="15"/>
@@ -1251,7 +1216,7 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="9">
         <v>42377.848043981481</v>
@@ -1263,12 +1228,12 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="15"/>
@@ -1317,7 +1282,7 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="9">
         <v>42378.768796296295</v>
@@ -1326,15 +1291,15 @@
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="15"/>
@@ -1383,26 +1348,26 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="9">
         <v>42378.047766203701</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="15"/>
@@ -1451,23 +1416,27 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="9">
         <v>42379.955937500003</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
@@ -1515,21 +1484,23 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="9">
         <v>42380.978622685187</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
@@ -1577,24 +1548,24 @@
     </row>
     <row r="11" spans="1:52" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="9">
         <v>42381.967719907407</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="15"/>
@@ -1643,7 +1614,7 @@
     </row>
     <row r="12" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9">
         <v>42381.982581018521</v>
@@ -1655,13 +1626,15 @@
         <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="15"/>
       <c r="K12" s="16"/>
@@ -1708,14 +1681,26 @@
       <c r="AZ12" s="17"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="9">
+        <v>42382.943032407406</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="15"/>
       <c r="K13" s="16"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看《计算机网络自顶向下》2.2-2.2.1节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每个问题都有理解，但不清晰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +130,6 @@
   </si>
   <si>
     <t>看《计算机网络自顶向下》2.1-2.1.3 &amp; 2.1.4节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看《计算机网络自顶向下》2.2-2.2.2节 &amp; 2.2.3节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -201,6 +193,34 @@
   </si>
   <si>
     <t>Re:xm 2016-01-13 22:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《计算机网络自顶向下》2.2-2.2.1节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《计算机网络自顶向下》2.2-2.2.4节 Cookies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《计算机网络自顶向下》2.2-2.2.2节 &amp; 2.2.3节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑没电，手机继续百度Cookies,基本内容已了解。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,6 +658,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -662,9 +685,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
@@ -676,6 +696,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -695,7 +783,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -976,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -993,45 +1081,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:52" s="13" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -1096,13 +1184,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
@@ -1228,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1294,7 +1382,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1426,16 +1514,16 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>44</v>
+      <c r="G9" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="15"/>
@@ -1484,22 +1572,22 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="9">
         <v>42380.978622685187</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="15"/>
@@ -1548,24 +1636,24 @@
     </row>
     <row r="11" spans="1:52" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="9">
         <v>42381.967719907407</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="15"/>
@@ -1626,14 +1714,14 @@
         <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="15"/>
@@ -1682,24 +1770,24 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="9">
         <v>42382.943032407406</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="15"/>
@@ -1746,15 +1834,29 @@
       <c r="AY13" s="17"/>
       <c r="AZ13" s="17"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+    <row r="14" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="9">
+        <v>42382.854456018518</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="15"/>
       <c r="K14" s="16"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,43 @@
   </si>
   <si>
     <t>电脑没电，手机继续百度Cookies,基本内容已了解。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被工作代码玩死了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑惑：包中最后一个Ulong data字段，
+如何和需要传输一片连续的地址联系起来？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Session &amp; Cookies[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">看《计算机网络自顶向下》2.1-2.2.5节 &amp; 2.2.6节 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache 未完全理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,14 +1102,14 @@
   <dimension ref="A1:AZ68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="27.375" style="3" customWidth="1"/>
@@ -1902,15 +1939,29 @@
       <c r="AY14" s="17"/>
       <c r="AZ14" s="17"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+    <row r="15" spans="1:52" ht="54" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="9">
+        <v>42383.996678240743</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="15"/>
       <c r="K15" s="16"/>
@@ -1957,14 +2008,26 @@
       <c r="AZ15" s="17"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="9">
+        <v>42383.93954861111</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="15"/>
       <c r="K16" s="16"/>
@@ -4783,9 +4846,10 @@
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1"/>
     <hyperlink ref="C10" r:id="rId2"/>
+    <hyperlink ref="C16" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>doing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电脑没电，手机继续百度Cookies,基本内容已了解。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,6 +250,26 @@
   </si>
   <si>
     <t>cache 未完全理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email &amp; SMTP[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">看《计算机网络自顶向下》2.3节 &amp; 2.4.1 2.4.2节 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -616,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,6 +737,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1102,7 +1124,7 @@
   <dimension ref="A1:AZ68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1546,10 +1568,12 @@
       <c r="B9" s="9">
         <v>42379.955937500003</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>45</v>
       </c>
@@ -1878,7 +1902,7 @@
       <c r="B14" s="9">
         <v>42382.854456018518</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="36" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1888,11 +1912,11 @@
         <v>46</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="15"/>
@@ -1941,22 +1965,22 @@
     </row>
     <row r="15" spans="1:52" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="9">
         <v>42383.996678240743</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="25" t="s">
         <v>53</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>54</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="22" t="s">
@@ -2009,24 +2033,24 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="9">
         <v>42383.93954861111</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="15"/>
@@ -2074,14 +2098,24 @@
       <c r="AZ16" s="17"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="9">
+        <v>42384.699976851851</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="15"/>
       <c r="K17" s="16"/>
@@ -4847,9 +4881,10 @@
     <hyperlink ref="C9" r:id="rId1"/>
     <hyperlink ref="C10" r:id="rId2"/>
     <hyperlink ref="C16" r:id="rId3"/>
+    <hyperlink ref="C17" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,19 +97,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目困难，没有时间，周六晚上照例去妈妈那儿吃饭。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>谢敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web &amp; Http[4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -176,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>State</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,7 +261,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>done</t>
+    <t>薛雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续工作中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web &amp; Http[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +428,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,6 +726,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -738,10 +753,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -755,74 +770,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -842,7 +789,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1124,7 +1071,7 @@
   <dimension ref="A1:AZ68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1140,45 +1087,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:52" s="13" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -1243,13 +1190,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
@@ -1313,8 +1260,8 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>19</v>
+      <c r="H5" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="15"/>
@@ -1375,12 +1322,12 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>19</v>
+      <c r="H6" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="15"/>
@@ -1441,12 +1388,12 @@
         <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>19</v>
+      <c r="H7" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="15"/>
@@ -1507,7 +1454,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>18</v>
@@ -1563,28 +1510,28 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="9">
         <v>42379.955937500003</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>22</v>
+      <c r="C9" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="15"/>
@@ -1633,22 +1580,22 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="9">
         <v>42380.978622685187</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="15"/>
@@ -1697,24 +1644,24 @@
     </row>
     <row r="11" spans="1:52" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="9">
         <v>42381.967719907407</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="15"/>
@@ -1775,14 +1722,14 @@
         <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>38</v>
+      <c r="H12" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="15"/>
@@ -1831,24 +1778,24 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="9">
         <v>42382.943032407406</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="15"/>
@@ -1897,25 +1844,25 @@
     </row>
     <row r="14" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" s="9">
         <v>42382.854456018518</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>44</v>
+      <c r="C14" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="37" t="s">
         <v>62</v>
       </c>
       <c r="I14" s="5"/>
@@ -1965,7 +1912,7 @@
     </row>
     <row r="15" spans="1:52" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" s="9">
         <v>42383.996678240743</v>
@@ -1974,17 +1921,17 @@
         <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="15"/>
@@ -2033,24 +1980,24 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="9">
         <v>42383.93954861111</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="15"/>
@@ -2099,22 +2046,22 @@
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" s="9">
         <v>42384.699976851851</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="15"/>
@@ -2162,14 +2109,26 @@
       <c r="AZ17" s="17"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="9">
+        <v>42384.985729166663</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="15"/>
       <c r="K18" s="16"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -180,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Re:xm 2016-01-13 22:42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>谢敏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,6 +270,10 @@
   </si>
   <si>
     <t>DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re:xm 2016-01-13 22:42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,6 +729,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -753,12 +759,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
@@ -770,6 +770,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -789,7 +857,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1070,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1087,45 +1155,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:52" s="13" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -1260,8 +1328,8 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="37" t="s">
-        <v>62</v>
+      <c r="H5" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="15"/>
@@ -1326,8 +1394,8 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="37" t="s">
-        <v>62</v>
+      <c r="H6" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="15"/>
@@ -1392,8 +1460,8 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="37" t="s">
-        <v>62</v>
+      <c r="H7" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="15"/>
@@ -1515,23 +1583,23 @@
       <c r="B9" s="9">
         <v>42379.955937500003</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>61</v>
+      <c r="C9" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="37" t="s">
         <v>62</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="15"/>
@@ -1590,7 +1658,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1728,8 +1796,8 @@
         <v>26</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="37" t="s">
-        <v>62</v>
+      <c r="H12" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="15"/>
@@ -1844,26 +1912,26 @@
     </row>
     <row r="14" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="9">
         <v>42382.854456018518</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="37" t="s">
-        <v>62</v>
+      <c r="H14" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="15"/>
@@ -1912,7 +1980,7 @@
     </row>
     <row r="15" spans="1:52" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="9">
         <v>42383.996678240743</v>
@@ -1921,13 +1989,13 @@
         <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="25" t="s">
         <v>49</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>50</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="22" t="s">
@@ -1980,24 +2048,24 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="9">
         <v>42383.93954861111</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="15"/>
@@ -2046,22 +2114,22 @@
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="9">
         <v>42384.699976851851</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="15"/>
@@ -2110,7 +2178,7 @@
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="9">
         <v>42384.985729166663</v>
@@ -2122,7 +2190,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,14 @@
   </si>
   <si>
     <t>Re:xm 2016-01-13 22:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP学习中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1138,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2243,14 +2251,26 @@
       <c r="AZ18" s="17"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="9">
+        <v>42385.699050925927</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="15"/>
       <c r="K19" s="16"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Study" sheetId="1" r:id="rId1"/>
+    <sheet name="LOL" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,14 @@
   </si>
   <si>
     <t>Re:xm 2016-01-13 22:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打野翻盘carry真爽</t>
+  </si>
+  <si>
+    <t>好久没有翻盘了,前期四路全蹦
+相差30个人头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -623,6 +631,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +795,45 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -770,74 +869,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -857,7 +888,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1138,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1155,45 +1186,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:52" s="13" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -4917,15 +4948,871 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AZ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F6:F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="9" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+    </row>
+    <row r="2" spans="1:52" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9">
+        <v>42386.943206018521</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+    </row>
+    <row r="3" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="37"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="17"/>
+    </row>
+    <row r="4" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="42"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+    </row>
+    <row r="5" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="42"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="17"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17"/>
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="17"/>
+    </row>
+    <row r="6" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="37"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+    </row>
+    <row r="7" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="37"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="17"/>
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="17"/>
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="17"/>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="17"/>
+    </row>
+    <row r="8" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="37"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="17"/>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="17"/>
+      <c r="AV8" s="17"/>
+      <c r="AW8" s="17"/>
+      <c r="AX8" s="17"/>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="17"/>
+    </row>
+    <row r="9" spans="1:52" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+    </row>
+    <row r="10" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="39"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="17"/>
+    </row>
+    <row r="11" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="39"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="17"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="17"/>
+      <c r="AV11" s="17"/>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="17"/>
+    </row>
+    <row r="12" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="40"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="17"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="17"/>
+      <c r="AT12" s="17"/>
+      <c r="AU12" s="17"/>
+      <c r="AV12" s="17"/>
+      <c r="AW12" s="17"/>
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="17"/>
+      <c r="AZ12" s="17"/>
+    </row>
+    <row r="13" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="39"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17"/>
+      <c r="AT13" s="17"/>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="17"/>
+      <c r="AW13" s="17"/>
+      <c r="AX13" s="17"/>
+      <c r="AY13" s="17"/>
+      <c r="AZ13" s="17"/>
+    </row>
+    <row r="14" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="39"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17"/>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="17"/>
+      <c r="AQ14" s="17"/>
+      <c r="AR14" s="17"/>
+      <c r="AS14" s="17"/>
+      <c r="AT14" s="17"/>
+      <c r="AU14" s="17"/>
+      <c r="AV14" s="17"/>
+      <c r="AW14" s="17"/>
+      <c r="AX14" s="17"/>
+      <c r="AY14" s="17"/>
+      <c r="AZ14" s="17"/>
+    </row>
+    <row r="15" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="40"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="17"/>
+      <c r="AS15" s="17"/>
+      <c r="AT15" s="17"/>
+      <c r="AU15" s="17"/>
+      <c r="AV15" s="17"/>
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="17"/>
+      <c r="AY15" s="17"/>
+      <c r="AZ15" s="17"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" tooltip="哈哈"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,26 @@
   </si>
   <si>
     <t>Re:xm 2016-01-13 22:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP学习中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP学习中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,7 +1159,7 @@
   <dimension ref="A1:AZ67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2243,14 +2263,26 @@
       <c r="AZ18" s="17"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="9">
+        <v>42385.699050925927</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="15"/>
       <c r="K19" s="16"/>
@@ -2297,14 +2329,26 @@
       <c r="AZ19" s="17"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="A20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="9">
+        <v>42386.699050925927</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="15"/>
       <c r="K20" s="16"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,14 @@
   </si>
   <si>
     <t>DSP学习中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR6323接口测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1167,7 @@
   <dimension ref="A1:AZ67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2395,14 +2403,26 @@
       <c r="AZ20" s="17"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="A21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="9">
+        <v>42387.942118055558</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,18 @@
   </si>
   <si>
     <t>GR6323接口测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作疲惫，明天deadline，过后补上遗留回复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,6 +799,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
@@ -798,74 +813,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -885,7 +832,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1167,7 +1114,7 @@
   <dimension ref="A1:AZ67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2412,7 +2359,7 @@
       <c r="C21" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="38" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -2469,14 +2416,26 @@
       <c r="AZ21" s="17"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="A22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="9">
+        <v>42387.994722222225</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="H22" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Study" sheetId="1" r:id="rId1"/>
+    <sheet name="LOL" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,44 +277,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>打野翻盘carry真爽</t>
+  </si>
+  <si>
+    <t>好久没有翻盘了,前期四路全蹦
+相差30个人头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>谢敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DSP学习中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSP学习中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GR6323接口测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>薛雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工作疲惫，明天deadline，过后补上遗留回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -484,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -663,6 +649,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -684,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,6 +813,45 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -798,9 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1111,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ67"/>
+  <dimension ref="A1:AZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1130,45 +1204,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:52" s="13" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -2219,19 +2293,19 @@
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" s="9">
-        <v>42385.699050925927</v>
+        <v>42385.698611111111</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -2285,16 +2359,16 @@
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" s="9">
-        <v>42386.699050925927</v>
+        <v>42386.698611111111</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>67</v>
@@ -2351,19 +2425,19 @@
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="9">
+        <v>42387.941666666666</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B21" s="9">
-        <v>42387.942118055558</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -2417,19 +2491,19 @@
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="9">
-        <v>42387.994722222225</v>
+        <v>42387.994444444441</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -4543,7 +4617,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="18"/>
+      <c r="J61" s="15"/>
       <c r="K61" s="16"/>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
@@ -4697,7 +4771,7 @@
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
-      <c r="B64" s="6"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -4705,8 +4779,8 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="17"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="16"/>
       <c r="L64" s="17"/>
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
@@ -4751,7 +4825,7 @@
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
-      <c r="B65" s="5"/>
+      <c r="B65" s="6"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -4759,7 +4833,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="16"/>
+      <c r="J65" s="19"/>
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
       <c r="M65" s="17"/>
@@ -4858,13 +4932,67 @@
       <c r="AZ66" s="17"/>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="17"/>
+      <c r="AB67" s="17"/>
+      <c r="AC67" s="17"/>
+      <c r="AD67" s="17"/>
+      <c r="AE67" s="17"/>
+      <c r="AF67" s="17"/>
+      <c r="AG67" s="17"/>
+      <c r="AH67" s="17"/>
+      <c r="AI67" s="17"/>
+      <c r="AJ67" s="17"/>
+      <c r="AK67" s="17"/>
+      <c r="AL67" s="17"/>
+      <c r="AM67" s="17"/>
+      <c r="AN67" s="17"/>
+      <c r="AO67" s="17"/>
+      <c r="AP67" s="17"/>
+      <c r="AQ67" s="17"/>
+      <c r="AR67" s="17"/>
+      <c r="AS67" s="17"/>
+      <c r="AT67" s="17"/>
+      <c r="AU67" s="17"/>
+      <c r="AV67" s="17"/>
+      <c r="AW67" s="17"/>
+      <c r="AX67" s="17"/>
+      <c r="AY67" s="17"/>
+      <c r="AZ67" s="17"/>
+    </row>
+    <row r="68" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4886,15 +5014,871 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AZ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="9" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+    </row>
+    <row r="2" spans="1:52" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9">
+        <v>42386.943206018521</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+    </row>
+    <row r="3" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="37"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="17"/>
+    </row>
+    <row r="4" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="42"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+    </row>
+    <row r="5" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="42"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="17"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17"/>
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="17"/>
+    </row>
+    <row r="6" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="37"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+    </row>
+    <row r="7" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="37"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="17"/>
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="17"/>
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="17"/>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="17"/>
+    </row>
+    <row r="8" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="37"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="17"/>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="17"/>
+      <c r="AV8" s="17"/>
+      <c r="AW8" s="17"/>
+      <c r="AX8" s="17"/>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="17"/>
+    </row>
+    <row r="9" spans="1:52" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+    </row>
+    <row r="10" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="39"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="17"/>
+    </row>
+    <row r="11" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="39"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="17"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="17"/>
+      <c r="AV11" s="17"/>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="17"/>
+    </row>
+    <row r="12" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="40"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="17"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="17"/>
+      <c r="AT12" s="17"/>
+      <c r="AU12" s="17"/>
+      <c r="AV12" s="17"/>
+      <c r="AW12" s="17"/>
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="17"/>
+      <c r="AZ12" s="17"/>
+    </row>
+    <row r="13" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="39"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17"/>
+      <c r="AT13" s="17"/>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="17"/>
+      <c r="AW13" s="17"/>
+      <c r="AX13" s="17"/>
+      <c r="AY13" s="17"/>
+      <c r="AZ13" s="17"/>
+    </row>
+    <row r="14" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="39"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17"/>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="17"/>
+      <c r="AQ14" s="17"/>
+      <c r="AR14" s="17"/>
+      <c r="AS14" s="17"/>
+      <c r="AT14" s="17"/>
+      <c r="AU14" s="17"/>
+      <c r="AV14" s="17"/>
+      <c r="AW14" s="17"/>
+      <c r="AX14" s="17"/>
+      <c r="AY14" s="17"/>
+      <c r="AZ14" s="17"/>
+    </row>
+    <row r="15" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="40"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="17"/>
+      <c r="AS15" s="17"/>
+      <c r="AT15" s="17"/>
+      <c r="AU15" s="17"/>
+      <c r="AV15" s="17"/>
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="17"/>
+      <c r="AY15" s="17"/>
+      <c r="AZ15" s="17"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" tooltip="哈哈"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,10 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>薛雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>继续工作中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,7 +296,16 @@
     <t>薛雨</t>
   </si>
   <si>
-    <t>工作疲惫，明天deadline，过后补上遗留回复</t>
+    <t>薛sadasd雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/1/18 sdasdasda 22:36:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作疲惫，明sadasda天deadline，过后补上遗留回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -887,6 +892,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -906,7 +979,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1188,7 +1261,7 @@
   <dimension ref="A1:AZ68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1378,7 +1451,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="15"/>
@@ -1444,7 +1517,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="15"/>
@@ -1510,7 +1583,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="15"/>
@@ -1633,7 +1706,7 @@
         <v>42379.955937500003</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>4</v>
@@ -1645,10 +1718,10 @@
         <v>21</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="15"/>
@@ -1846,7 +1919,7 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="15"/>
@@ -1980,7 +2053,7 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="15"/>
@@ -2227,7 +2300,7 @@
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B18" s="9">
         <v>42384.985729166663</v>
@@ -2239,7 +2312,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2293,7 +2366,7 @@
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="9">
         <v>42385.698611111111</v>
@@ -2302,10 +2375,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -2359,7 +2432,7 @@
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="9">
         <v>42386.698611111111</v>
@@ -2368,10 +2441,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -2425,19 +2498,19 @@
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="9">
-        <v>42387.941666666666</v>
+        <v>64</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -2491,7 +2564,7 @@
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="9">
         <v>42387.994444444441</v>
@@ -2500,10 +2573,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -5112,18 +5185,18 @@
         <v>42386.943206018521</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,10 @@
   </si>
   <si>
     <t>工作疲惫，明天deadline，过后补上遗留回复</t>
+  </si>
+  <si>
+    <t>薛雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1188,7 +1192,7 @@
   <dimension ref="A1:AZ68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2556,7 +2560,9 @@
       <c r="AZ22" s="17"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
+      <c r="A23" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +332,14 @@
   </si>
   <si>
     <t>GR6323高低温实验没过，蛋疼，恶补DSP了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续工作中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,74 +927,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1287,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2916,14 +2856,26 @@
       <c r="AZ26" s="17"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="A27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="9">
+        <v>42391.665821759256</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="H27" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="I27" s="5"/>
       <c r="J27" s="15"/>
       <c r="K27" s="16"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +348,18 @@
   </si>
   <si>
     <t>继续工作中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 《手把手教你学DSP》-扩展外部RAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR6323 高低温实验: 测试发现一块SDRAM可能存在问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,6 +932,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -939,7 +1019,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1221,7 +1301,7 @@
   <dimension ref="A1:AZ69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1230,7 +1310,7 @@
     <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="50.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="27.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="23" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
@@ -2981,14 +3061,26 @@
       <c r="AZ28" s="16"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="A29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="9">
+        <v>42392.924525462964</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="H29" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I29" s="5"/>
       <c r="J29" s="14"/>
       <c r="K29" s="15"/>
@@ -3035,14 +3127,26 @@
       <c r="AZ29" s="16"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="A30" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="9">
+        <v>42393.820543981485</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I30" s="5"/>
       <c r="J30" s="14"/>
       <c r="K30" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,14 @@
   </si>
   <si>
     <t>GR6323 高低温实验: 测试发现一块SDRAM可能存在问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢一把睡觉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -932,74 +940,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1019,7 +959,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1301,7 +1241,7 @@
   <dimension ref="A1:AZ69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3193,14 +3133,26 @@
       <c r="AZ30" s="16"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="A31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="9">
+        <v>42393.976851851854</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="H31" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I31" s="5"/>
       <c r="J31" s="14"/>
       <c r="K31" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="90">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,14 @@
   </si>
   <si>
     <t>赢一把睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高低温实验、年会舞蹈准备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,6 +948,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -959,7 +1035,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1241,7 +1317,7 @@
   <dimension ref="A1:AZ69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3199,14 +3275,26 @@
       <c r="AZ31" s="16"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="A32" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="9">
+        <v>42394.850729166668</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="H32" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I32" s="5"/>
       <c r="J32" s="14"/>
       <c r="K32" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +376,10 @@
   </si>
   <si>
     <t>高低温实验、年会舞蹈准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这次迭代特性要求七天完成，已炸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,74 +952,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1035,7 +971,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1317,7 +1253,7 @@
   <dimension ref="A1:AZ69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3341,14 +3277,26 @@
       <c r="AZ32" s="16"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="A33" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="9">
+        <v>42395.904166666667</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="H33" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I33" s="5"/>
       <c r="J33" s="14"/>
       <c r="K33" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,6 +380,22 @@
   </si>
   <si>
     <t>这次迭代特性要求七天完成，已炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNS 体系结构 [1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近被DSP搞得有点浮躁，硬件基础不够，马丹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,6 +968,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -971,7 +1055,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1252,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3343,14 +3427,24 @@
       <c r="AZ33" s="16"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="9">
+        <v>42395.963148148148</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="H34" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="I34" s="5"/>
       <c r="J34" s="14"/>
       <c r="K34" s="15"/>
@@ -5255,9 +5349,10 @@
     <hyperlink ref="C17" r:id="rId4"/>
     <hyperlink ref="C24" r:id="rId5"/>
     <hyperlink ref="C25" r:id="rId6"/>
+    <hyperlink ref="C34" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,6 +396,18 @@
   </si>
   <si>
     <t>最近被DSP搞得有点浮躁，硬件基础不够，马丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDRAM &amp; EMIF：Bank、分页机制、物理（虚拟）地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1336,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3491,14 +3503,26 @@
       <c r="AZ34" s="16"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="A35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="9">
+        <v>42399.866805555554</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="H35" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I35" s="5"/>
       <c r="J35" s="14"/>
       <c r="K35" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="100">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,6 +408,14 @@
   </si>
   <si>
     <t>SDRAM &amp; EMIF：Bank、分页机制、物理（虚拟）地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字电路基础：时序电路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3569,14 +3577,26 @@
       <c r="AZ35" s="16"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="A36" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="9">
+        <v>42401.976967592593</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="H36" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I36" s="5"/>
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,19 +403,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SDRAM &amp; EMIF：Bank、分页机制、物理（虚拟）地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字电路基础：时序电路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SDRAM &amp; EMIF：Bank、分页机制、物理（虚拟）地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字电路基础：时序电路</t>
+    <t>迭代七终于完成一阶段，还剩一小部分，明天放假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,74 +996,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1075,7 +1015,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1357,7 +1297,7 @@
   <dimension ref="A1:AZ69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3517,14 +3457,14 @@
       <c r="B35" s="9">
         <v>42399.866805555554</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>96</v>
+      <c r="C35" s="22" t="s">
+        <v>4</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -3578,19 +3518,19 @@
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" s="9">
         <v>42401.976967592593</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>81</v>
+      <c r="C36" s="22" t="s">
+        <v>4</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -3643,14 +3583,26 @@
       <c r="AZ36" s="16"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="A37" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="9">
+        <v>42404.991539351853</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="H37" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I37" s="5"/>
       <c r="J37" s="14"/>
       <c r="K37" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="104">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +424,14 @@
   </si>
   <si>
     <t>迭代七终于完成一阶段，还剩一小部分，明天放假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《operation system content》 3.1 process concept</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -996,6 +1004,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1015,7 +1091,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1297,7 +1373,7 @@
   <dimension ref="A1:AZ69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3649,14 +3725,26 @@
       <c r="AZ37" s="16"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="A38" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="9">
+        <v>42418.942511574074</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="H38" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I38" s="5"/>
       <c r="J38" s="14"/>
       <c r="K38" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="108">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,7 +431,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程概念[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>《operation system content》 3.1 process concept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《operation system content》 &amp; 《Linux内核情景分析》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1372,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3738,7 +3754,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -3791,14 +3807,24 @@
       <c r="AZ38" s="16"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="9">
+        <v>42423.835023148145</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>104</v>
+      </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="H39" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
@@ -5434,9 +5460,10 @@
     <hyperlink ref="C24" r:id="rId5"/>
     <hyperlink ref="C25" r:id="rId6"/>
     <hyperlink ref="C34" r:id="rId7"/>
+    <hyperlink ref="C39" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="112">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +448,23 @@
   </si>
   <si>
     <t>《operation system content》 &amp; 《Linux内核情景分析》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《operting system content》 &amp; 《linux内核情景分析》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了一天，没什么特别的进展
+，明天继续。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1388,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3870,15 +3887,29 @@
       <c r="AY39" s="16"/>
       <c r="AZ39" s="16"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+    <row r="40" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="9">
+        <v>42424.933356481481</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="H40" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="I40" s="5"/>
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="113">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,12 +459,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>doing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>看了一天，没什么特别的进展
 ，明天继续。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2c 适配器驱动添加流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1406,7 +1410,7 @@
   <dimension ref="A1:AZ69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3904,11 +3908,11 @@
         <v>109</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="H40" s="5" t="s">
-        <v>110</v>
+      <c r="H40" s="20" t="s">
+        <v>4</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="14"/>
@@ -3956,14 +3960,26 @@
       <c r="AZ40" s="16"/>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A41" s="10"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="A41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="9">
+        <v>42425.787824074076</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="H41" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I41" s="5"/>
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="120">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +469,39 @@
   </si>
   <si>
     <t>i2c 适配器驱动添加流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-2-29 09:43:10 补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-2-29 09:43:17 补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现MNC串查询功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-2-29 09:46:41 补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.早上睡觉 
+2.下午撸通信协议和类型定义（未完）
+3.找房子，看房子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2c 子系统设备的静态注册：
+    1.板级初始化：注册i2c_board_info
+    2.sysinit: 添加i2c_adapter驱动，并调用i2c_scan_static_board_info找到板级初始化时注册的i2c_board_info，再通过i2c_new_device将之与i2c_client对应。
+    3.module_init:i2c 设备驱动注册（如rtc、eeprom）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1409,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4025,15 +4058,29 @@
       <c r="AY41" s="16"/>
       <c r="AZ41" s="16"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+    <row r="42" spans="1:52" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="9">
+        <v>42426.392395833333</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="H42" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I42" s="5"/>
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
@@ -4080,14 +4127,28 @@
       <c r="AZ42" s="16"/>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A43" s="10"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="A43" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="9">
+        <v>42427.404374999998</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="H43" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I43" s="5"/>
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
@@ -4133,15 +4194,29 @@
       <c r="AY43" s="16"/>
       <c r="AZ43" s="16"/>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A44" s="10"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+    <row r="44" spans="1:52" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="9">
+        <v>42428.405127314814</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="H44" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I44" s="5"/>
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="123">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,10 +476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016-2-29 09:43:10 补</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2016-2-29 09:43:17 补</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,6 +498,22 @@
     1.板级初始化：注册i2c_board_info
     2.sysinit: 添加i2c_adapter驱动，并调用i2c_scan_static_board_info找到板级初始化时注册的i2c_board_info，再通过i2c_new_device将之与i2c_client对应。
     3.module_init:i2c 设备驱动注册（如rtc、eeprom）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码解耦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解耦很重要，请查看并回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-2-29 09:43:10 补</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,7 +930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,6 +1075,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
@@ -1074,74 +1089,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1161,7 +1108,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1443,7 +1390,7 @@
   <dimension ref="A1:AZ69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4072,10 +4019,10 @@
         <v>4</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="20" t="s">
@@ -4140,14 +4087,14 @@
         <v>4</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G43" s="5"/>
-      <c r="H43" s="20" t="s">
-        <v>4</v>
+      <c r="H43" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="14"/>
@@ -4208,10 +4155,10 @@
         <v>4</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="20" t="s">
@@ -4263,14 +4210,26 @@
       <c r="AZ44" s="16"/>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="A45" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="9">
+        <v>42431.918726851851</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>121</v>
+      </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="H45" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="I45" s="5"/>
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
@@ -5583,9 +5542,10 @@
     <hyperlink ref="C25" r:id="rId6"/>
     <hyperlink ref="C34" r:id="rId7"/>
     <hyperlink ref="C39" r:id="rId8"/>
+    <hyperlink ref="C45" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="125">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -514,6 +514,14 @@
   </si>
   <si>
     <t>2016-2-29 09:43:10 补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码工具配置完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,6 +1059,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1074,9 +1085,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1406,45 +1414,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:52" s="12" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -4216,7 +4224,7 @@
       <c r="B45" s="9">
         <v>42431.918726851851</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="40" t="s">
         <v>120</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -4276,14 +4284,26 @@
       <c r="AZ45" s="16"/>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="A46" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="9">
+        <v>42436.030428240738</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="H46" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="I46" s="5"/>
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="127">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -522,6 +522,14 @@
   </si>
   <si>
     <t>代码工具配置完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼睛是花的，我需要休息。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1397,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4350,14 +4358,26 @@
       <c r="AZ46" s="16"/>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="A47" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="9">
+        <v>42436.945451388892</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="H47" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I47" s="5"/>
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="131">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -532,11 +532,27 @@
     <t>眼睛是花的，我需要休息。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>喻波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了一小会儿书，睡觉，明天开始补那本书，争取早日看完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1117,7 +1133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1405,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4424,14 +4440,26 @@
       <c r="AZ47" s="16"/>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A48" s="10"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="A48" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="9">
+        <v>42436.961805555555</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="H48" s="20" t="s">
+        <v>129</v>
+      </c>
       <c r="I48" s="5"/>
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="133">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,6 +533,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>喻波</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,7 +549,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看了一小会儿书，睡觉，明天开始补那本书，争取早日看完</t>
+    <t>看了一小会儿，明天好好的看完《数据库概论》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为毛我没有前面那个颜色的颜料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +647,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,6 +714,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,6 +1123,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1421,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4441,24 +4458,26 @@
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B48" s="9">
-        <v>42436.961805555555</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>128</v>
+        <v>42436.97152777778</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>129</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" s="5"/>
+        <v>131</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="G48" s="5"/>
       <c r="H48" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="14"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="135">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,11 +556,19 @@
     <t>为毛我没有前面那个颜色的颜料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>主要是为看懂进程做准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《程序员自我修养》 目标文件格式(elf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1100,6 +1108,9 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1124,9 +1135,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
@@ -1138,6 +1146,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1150,14 +1226,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1438,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1455,45 +1531,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:52" s="12" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -4463,7 +4539,7 @@
       <c r="B48" s="9">
         <v>42436.97152777778</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="41" t="s">
         <v>129</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -4525,14 +4601,28 @@
       <c r="AZ48" s="16"/>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="A49" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="9">
+        <v>42437.877349537041</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+      <c r="H49" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I49" s="5"/>
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="138">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,11 +564,23 @@
     <t>看《程序员自我修养》 目标文件格式(elf)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>喻波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看《数据库概论》PDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间不多看了三小节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1146,74 +1158,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1226,14 +1170,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1515,7 +1459,7 @@
   <dimension ref="A1:AZ69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4669,14 +4613,28 @@
       <c r="AZ49" s="16"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A50" s="10"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="A50" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="9">
+        <v>42437.901388888888</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="H50" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I50" s="5"/>
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -580,7 +580,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1170,7 +1170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1458,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4296,8 +4296,8 @@
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="5" t="s">
-        <v>34</v>
+      <c r="H45" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="14"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="141">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -576,11 +576,23 @@
     <t>时间不多看了三小节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>喻波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大神把那个bug解决了，今天主要任务是接着项目进度做下去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回来比较迟，没有看书，装了一些工作软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1170,7 +1182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1458,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4681,14 +4693,28 @@
       <c r="AZ50" s="16"/>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A51" s="10"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="A51" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="9">
+        <v>42438.977083333331</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
+      <c r="H51" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I51" s="5"/>
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="145">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,11 +588,27 @@
     <t>回来比较迟，没有看书，装了一些工作软件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码查询系统 需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码查询系统新增功能，存在需求不明的情况，请查看并回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了一天单片机芯片资料，很乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1170,6 +1186,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1182,14 +1266,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1470,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1480,8 +1564,8 @@
     <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="51.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="23" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
@@ -4761,14 +4845,28 @@
       <c r="AZ51" s="16"/>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A52" s="10"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="A52" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="9">
+        <v>42439.02684027778</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
+      <c r="H52" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I52" s="5"/>
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
@@ -5704,9 +5802,10 @@
     <hyperlink ref="C34" r:id="rId7"/>
     <hyperlink ref="C39" r:id="rId8"/>
     <hyperlink ref="C45" r:id="rId9"/>
+    <hyperlink ref="C52" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="148">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,10 +585,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回来比较迟，没有看书，装了一些工作软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>谢敏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,13 +598,29 @@
   </si>
   <si>
     <t>看了一天单片机芯片资料，很乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我今天做饭，9点才弄完，弄完继续调公司的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回来比较迟，装了一些工作软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我还就不信解决不了这个问题了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1186,74 +1198,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1266,14 +1210,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1554,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="D46" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4793,7 +4737,7 @@
         <v>139</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="20" t="s">
@@ -4846,22 +4790,22 @@
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B52" s="9">
         <v>42439.02684027778</v>
       </c>
       <c r="C52" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="20" t="s">
@@ -4913,14 +4857,28 @@
       <c r="AZ52" s="16"/>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A53" s="10"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="A53" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" s="9">
+        <v>42439.930555555555</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
+      <c r="H53" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I53" s="5"/>
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="153">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,11 +616,31 @@
     <t>我还就不信解决不了这个问题了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>薛雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程方法总结[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结一下工作流程，初稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼上的SB，你就是搞不定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1210,7 +1230,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1498,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D46" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4925,14 +4945,28 @@
       <c r="AZ53" s="16"/>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A54" s="10"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="A54" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="9">
+        <v>42440.008981481478</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+      <c r="H54" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="I54" s="5"/>
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
@@ -5761,9 +5795,10 @@
     <hyperlink ref="C39" r:id="rId8"/>
     <hyperlink ref="C45" r:id="rId9"/>
     <hyperlink ref="C52" r:id="rId10"/>
+    <hyperlink ref="C54" r:id="rId11" display="流程方法总结"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="155">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,6 +634,14 @@
   </si>
   <si>
     <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到成都党校培训保密（da jiang you）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我觉得楼上你说得对</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1218,6 +1226,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1237,7 +1313,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1519,7 +1595,7 @@
   <dimension ref="A1:AZ69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4828,8 +4904,8 @@
         <v>143</v>
       </c>
       <c r="G52" s="5"/>
-      <c r="H52" s="20" t="s">
-        <v>4</v>
+      <c r="H52" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="14"/>
@@ -5013,14 +5089,28 @@
       <c r="AZ54" s="16"/>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A55" s="10"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="A55" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="9">
+        <v>42440.383229166669</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
+      <c r="H55" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I55" s="5"/>
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="158">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -644,11 +644,23 @@
     <t>我觉得楼上你说得对</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>喻波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天解决了，然而又出了段错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次那个问题周四解决了，然而又出了一个段错误。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1226,74 +1238,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1306,14 +1250,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1594,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5157,14 +5101,28 @@
       <c r="AZ55" s="16"/>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A56" s="10"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="A56" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="9">
+        <v>42443.850694444445</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
+      <c r="H56" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I56" s="5"/>
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="161">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,11 +656,23 @@
     <t>上次那个问题周四解决了，然而又出了一个段错误。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何初始化MC9S12单片机系统时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜楼上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1238,6 +1250,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1250,14 +1330,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1538,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="F49" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5169,14 +5249,28 @@
       <c r="AZ56" s="16"/>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A57" s="10"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="A57" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="9">
+        <v>42443.985173611109</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
+      <c r="H57" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I57" s="5"/>
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -1250,74 +1250,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1337,7 +1269,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1618,16 +1550,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F49" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="51.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="30.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="23" style="3" customWidth="1"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="164">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,11 +668,23 @@
     <t>恭喜楼上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>喻波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白盒测试已经能初步走通一个接口其中一条路了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全覆盖太难了，还是先跑起来再说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1262,7 +1274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1550,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5249,14 +5261,28 @@
       <c r="AZ57" s="16"/>
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A58" s="10"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="A58" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="9">
+        <v>42444.961111111108</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
+      <c r="H58" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I58" s="5"/>
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="169">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -678,6 +678,26 @@
   </si>
   <si>
     <t>全覆盖太难了，还是先跑起来再说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高内聚低耦合[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在看代码大全，看到内聚，想着你只讲了耦合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我就写一下内聚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1349,6 +1369,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1384,6 +1421,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1562,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5329,14 +5383,28 @@
       <c r="AZ58" s="16"/>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A59" s="10"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="A59" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="9">
+        <v>42445.770833333336</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
+      <c r="H59" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="I59" s="5"/>
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
@@ -5896,9 +5964,10 @@
     <hyperlink ref="C45" r:id="rId9"/>
     <hyperlink ref="C52" r:id="rId10"/>
     <hyperlink ref="C54" r:id="rId11" display="流程方法总结"/>
+    <hyperlink ref="C59" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="174">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -700,11 +700,32 @@
     <t>doing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接到一个STM32单片机项目，要调LocalBus和上位机，今天
+先搭环境，熟悉下同事写好的工程代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习FSMC控制器：看看它有哪些模块组成，再看各个模块工作原理，该如何配置寄存器才能正常工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看芯片工作原理先找框图很重要啊，这样能搞清楚要看哪些内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1282,6 +1303,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1294,14 +1383,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1369,23 +1458,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1421,23 +1493,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1616,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5450,15 +5505,29 @@
       <c r="AY59" s="16"/>
       <c r="AZ59" s="16"/>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A60" s="10"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+    <row r="60" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="9">
+        <v>42444.816921296297</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
+      <c r="H60" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I60" s="5"/>
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
@@ -5504,15 +5573,29 @@
       <c r="AY60" s="16"/>
       <c r="AZ60" s="16"/>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A61" s="10"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+    <row r="61" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+      <c r="A61" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="9">
+        <v>42445.819722222222</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>173</v>
+      </c>
       <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
+      <c r="H61" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I61" s="5"/>
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="175">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -719,6 +719,11 @@
   </si>
   <si>
     <t>看芯片工作原理先找框图很重要啊，这样能搞清楚要看哪些内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Re:yb 2016-03-16 22:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1141,7 +1146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,6 +1297,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
@@ -1303,74 +1311,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1390,7 +1330,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1671,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66:F67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5437,7 +5377,7 @@
       <c r="AY58" s="16"/>
       <c r="AZ58" s="16"/>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>164</v>
       </c>
@@ -5456,7 +5396,9 @@
       <c r="F59" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G59" s="5"/>
+      <c r="G59" s="50" t="s">
+        <v>174</v>
+      </c>
       <c r="H59" s="5" t="s">
         <v>168</v>
       </c>
@@ -6035,6 +5977,11 @@
     <mergeCell ref="A3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G59">
+      <formula1>$G$59</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1"/>
     <hyperlink ref="C10" r:id="rId2"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="178">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -722,16 +722,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-Re:yb 2016-03-16 22:30</t>
+    <r>
+      <t xml:space="preserve">Re:xy 2016-03-17 16:35
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Re:yb 2016-03-16 22:30</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码质量不仅仅是内聚耦合决定的，还有很多方面，各种规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种性能，内存处理。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,6 +837,13 @@
       <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1273,6 +1304,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1297,9 +1331,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
@@ -1323,7 +1354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1398,6 +1429,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1433,6 +1481,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1611,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1628,45 +1693,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:52" s="12" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -5396,7 +5461,7 @@
       <c r="F59" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G59" s="50" t="s">
+      <c r="G59" s="42" t="s">
         <v>174</v>
       </c>
       <c r="H59" s="5" t="s">
@@ -5584,14 +5649,28 @@
       <c r="AZ61" s="16"/>
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A62" s="10"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="A62" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="9">
+        <v>42446.690972222219</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
+      <c r="H62" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="I62" s="5"/>
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -722,9 +722,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>喻波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码质量不仅仅是内聚耦合决定的，还有很多方面，各种规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种性能，内存处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Re:xy 2016-03-17 16:35
-</t>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Re:xy 2016-03-17 23:18</t>
     </r>
     <r>
       <rPr>
@@ -734,28 +754,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Re:yb 2016-03-16 22:30</t>
+      <t xml:space="preserve">
+Re:yb 2016-03-16 22:30
+Re:xy 2016-03-17 16:35</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喻波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码质量不仅仅是内聚耦合决定的，还有很多方面，各种规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各种性能，内存处理。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,6 +852,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1304,9 +1323,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1331,6 +1347,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
@@ -1354,7 +1373,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1429,23 +1448,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1481,23 +1483,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1677,10 +1662,10 @@
   <dimension ref="A1:AZ69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
@@ -1692,46 +1677,46 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:52" s="1" customFormat="1">
+      <c r="A1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:52" s="12" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:52" s="12" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -1776,7 +1761,7 @@
       <c r="AY3" s="13"/>
       <c r="AZ3" s="13"/>
     </row>
-    <row r="4" spans="1:52" s="2" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" s="2" customFormat="1" ht="14.25" thickTop="1">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -1848,7 +1833,7 @@
       <c r="AY4" s="16"/>
       <c r="AZ4" s="16"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1914,7 +1899,7 @@
       <c r="AY5" s="16"/>
       <c r="AZ5" s="16"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1980,7 +1965,7 @@
       <c r="AY6" s="16"/>
       <c r="AZ6" s="16"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -2046,7 +2031,7 @@
       <c r="AY7" s="16"/>
       <c r="AZ7" s="16"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -2114,7 +2099,7 @@
       <c r="AY8" s="16"/>
       <c r="AZ8" s="16"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -2184,7 +2169,7 @@
       <c r="AY9" s="16"/>
       <c r="AZ9" s="16"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -2248,7 +2233,7 @@
       <c r="AY10" s="16"/>
       <c r="AZ10" s="16"/>
     </row>
-    <row r="11" spans="1:52" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" ht="54">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -2314,7 +2299,7 @@
       <c r="AY11" s="16"/>
       <c r="AZ11" s="16"/>
     </row>
-    <row r="12" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" ht="12.75" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -2382,7 +2367,7 @@
       <c r="AY12" s="16"/>
       <c r="AZ12" s="16"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -2448,7 +2433,7 @@
       <c r="AY13" s="16"/>
       <c r="AZ13" s="16"/>
     </row>
-    <row r="14" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" ht="27">
       <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
@@ -2516,7 +2501,7 @@
       <c r="AY14" s="16"/>
       <c r="AZ14" s="16"/>
     </row>
-    <row r="15" spans="1:52" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" ht="54">
       <c r="A15" s="10" t="s">
         <v>45</v>
       </c>
@@ -2584,7 +2569,7 @@
       <c r="AY15" s="16"/>
       <c r="AZ15" s="16"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="10" t="s">
         <v>44</v>
       </c>
@@ -2650,7 +2635,7 @@
       <c r="AY16" s="16"/>
       <c r="AZ16" s="16"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="10" t="s">
         <v>52</v>
       </c>
@@ -2714,7 +2699,7 @@
       <c r="AY17" s="16"/>
       <c r="AZ17" s="16"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="10" t="s">
         <v>57</v>
       </c>
@@ -2780,7 +2765,7 @@
       <c r="AY18" s="16"/>
       <c r="AZ18" s="16"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="10" t="s">
         <v>64</v>
       </c>
@@ -2846,7 +2831,7 @@
       <c r="AY19" s="16"/>
       <c r="AZ19" s="16"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="10" t="s">
         <v>64</v>
       </c>
@@ -2912,7 +2897,7 @@
       <c r="AY20" s="16"/>
       <c r="AZ20" s="16"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="10" t="s">
         <v>64</v>
       </c>
@@ -2978,7 +2963,7 @@
       <c r="AY21" s="16"/>
       <c r="AZ21" s="16"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="10" t="s">
         <v>68</v>
       </c>
@@ -3044,7 +3029,7 @@
       <c r="AY22" s="16"/>
       <c r="AZ22" s="16"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="10" t="s">
         <v>75</v>
       </c>
@@ -3110,7 +3095,7 @@
       <c r="AY23" s="16"/>
       <c r="AZ23" s="16"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="10" t="s">
         <v>10</v>
       </c>
@@ -3174,7 +3159,7 @@
       <c r="AY24" s="16"/>
       <c r="AZ24" s="16"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="10" t="s">
         <v>10</v>
       </c>
@@ -3238,7 +3223,7 @@
       <c r="AY25" s="16"/>
       <c r="AZ25" s="16"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="10" t="s">
         <v>76</v>
       </c>
@@ -3304,7 +3289,7 @@
       <c r="AY26" s="16"/>
       <c r="AZ26" s="16"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="10" t="s">
         <v>78</v>
       </c>
@@ -3370,7 +3355,7 @@
       <c r="AY27" s="16"/>
       <c r="AZ27" s="16"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="10" t="s">
         <v>80</v>
       </c>
@@ -3436,7 +3421,7 @@
       <c r="AY28" s="16"/>
       <c r="AZ28" s="16"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="10" t="s">
         <v>83</v>
       </c>
@@ -3502,7 +3487,7 @@
       <c r="AY29" s="16"/>
       <c r="AZ29" s="16"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="10" t="s">
         <v>83</v>
       </c>
@@ -3568,7 +3553,7 @@
       <c r="AY30" s="16"/>
       <c r="AZ30" s="16"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="10" t="s">
         <v>86</v>
       </c>
@@ -3634,7 +3619,7 @@
       <c r="AY31" s="16"/>
       <c r="AZ31" s="16"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="10" t="s">
         <v>88</v>
       </c>
@@ -3700,7 +3685,7 @@
       <c r="AY32" s="16"/>
       <c r="AZ32" s="16"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="10" t="s">
         <v>8</v>
       </c>
@@ -3766,7 +3751,7 @@
       <c r="AY33" s="16"/>
       <c r="AZ33" s="16"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="10" t="s">
         <v>91</v>
       </c>
@@ -3830,7 +3815,7 @@
       <c r="AY34" s="16"/>
       <c r="AZ34" s="16"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="10" t="s">
         <v>95</v>
       </c>
@@ -3896,7 +3881,7 @@
       <c r="AY35" s="16"/>
       <c r="AZ35" s="16"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="10" t="s">
         <v>97</v>
       </c>
@@ -3962,7 +3947,7 @@
       <c r="AY36" s="16"/>
       <c r="AZ36" s="16"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="10" t="s">
         <v>99</v>
       </c>
@@ -4028,7 +4013,7 @@
       <c r="AY37" s="16"/>
       <c r="AZ37" s="16"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="10" t="s">
         <v>102</v>
       </c>
@@ -4094,7 +4079,7 @@
       <c r="AY38" s="16"/>
       <c r="AZ38" s="16"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:52">
       <c r="A39" s="10" t="s">
         <v>103</v>
       </c>
@@ -4158,7 +4143,7 @@
       <c r="AY39" s="16"/>
       <c r="AZ39" s="16"/>
     </row>
-    <row r="40" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:52" ht="27">
       <c r="A40" s="10" t="s">
         <v>108</v>
       </c>
@@ -4226,7 +4211,7 @@
       <c r="AY40" s="16"/>
       <c r="AZ40" s="16"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:52">
       <c r="A41" s="10" t="s">
         <v>111</v>
       </c>
@@ -4292,7 +4277,7 @@
       <c r="AY41" s="16"/>
       <c r="AZ41" s="16"/>
     </row>
-    <row r="42" spans="1:52" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:52" ht="94.5">
       <c r="A42" s="10" t="s">
         <v>113</v>
       </c>
@@ -4360,7 +4345,7 @@
       <c r="AY42" s="16"/>
       <c r="AZ42" s="16"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:52">
       <c r="A43" s="10" t="s">
         <v>113</v>
       </c>
@@ -4428,7 +4413,7 @@
       <c r="AY43" s="16"/>
       <c r="AZ43" s="16"/>
     </row>
-    <row r="44" spans="1:52" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:52" ht="40.5">
       <c r="A44" s="10" t="s">
         <v>113</v>
       </c>
@@ -4496,7 +4481,7 @@
       <c r="AY44" s="16"/>
       <c r="AZ44" s="16"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:52">
       <c r="A45" s="10" t="s">
         <v>119</v>
       </c>
@@ -4562,7 +4547,7 @@
       <c r="AY45" s="16"/>
       <c r="AZ45" s="16"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:52">
       <c r="A46" s="10" t="s">
         <v>123</v>
       </c>
@@ -4628,7 +4613,7 @@
       <c r="AY46" s="16"/>
       <c r="AZ46" s="16"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:52">
       <c r="A47" s="10" t="s">
         <v>125</v>
       </c>
@@ -4694,7 +4679,7 @@
       <c r="AY47" s="16"/>
       <c r="AZ47" s="16"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:52">
       <c r="A48" s="10" t="s">
         <v>128</v>
       </c>
@@ -4762,7 +4747,7 @@
       <c r="AY48" s="16"/>
       <c r="AZ48" s="16"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:52">
       <c r="A49" s="10" t="s">
         <v>10</v>
       </c>
@@ -4830,7 +4815,7 @@
       <c r="AY49" s="16"/>
       <c r="AZ49" s="16"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:52">
       <c r="A50" s="10" t="s">
         <v>135</v>
       </c>
@@ -4898,7 +4883,7 @@
       <c r="AY50" s="16"/>
       <c r="AZ50" s="16"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:52">
       <c r="A51" s="10" t="s">
         <v>138</v>
       </c>
@@ -4966,7 +4951,7 @@
       <c r="AY51" s="16"/>
       <c r="AZ51" s="16"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:52">
       <c r="A52" s="10" t="s">
         <v>140</v>
       </c>
@@ -5034,7 +5019,7 @@
       <c r="AY52" s="16"/>
       <c r="AZ52" s="16"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:52">
       <c r="A53" s="10" t="s">
         <v>144</v>
       </c>
@@ -5102,7 +5087,7 @@
       <c r="AY53" s="16"/>
       <c r="AZ53" s="16"/>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:52">
       <c r="A54" s="10" t="s">
         <v>148</v>
       </c>
@@ -5170,7 +5155,7 @@
       <c r="AY54" s="16"/>
       <c r="AZ54" s="16"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:52">
       <c r="A55" s="10" t="s">
         <v>10</v>
       </c>
@@ -5238,7 +5223,7 @@
       <c r="AY55" s="16"/>
       <c r="AZ55" s="16"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:52">
       <c r="A56" s="10" t="s">
         <v>155</v>
       </c>
@@ -5306,7 +5291,7 @@
       <c r="AY56" s="16"/>
       <c r="AZ56" s="16"/>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:52">
       <c r="A57" s="10" t="s">
         <v>158</v>
       </c>
@@ -5374,7 +5359,7 @@
       <c r="AY57" s="16"/>
       <c r="AZ57" s="16"/>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:52">
       <c r="A58" s="10" t="s">
         <v>161</v>
       </c>
@@ -5442,7 +5427,7 @@
       <c r="AY58" s="16"/>
       <c r="AZ58" s="16"/>
     </row>
-    <row r="59" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:52" ht="40.5">
       <c r="A59" s="10" t="s">
         <v>164</v>
       </c>
@@ -5461,8 +5446,8 @@
       <c r="F59" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G59" s="42" t="s">
-        <v>174</v>
+      <c r="G59" s="50" t="s">
+        <v>177</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>168</v>
@@ -5512,7 +5497,7 @@
       <c r="AY59" s="16"/>
       <c r="AZ59" s="16"/>
     </row>
-    <row r="60" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:52" ht="27">
       <c r="A60" s="10" t="s">
         <v>10</v>
       </c>
@@ -5580,7 +5565,7 @@
       <c r="AY60" s="16"/>
       <c r="AZ60" s="16"/>
     </row>
-    <row r="61" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:52" ht="27">
       <c r="A61" s="10" t="s">
         <v>170</v>
       </c>
@@ -5648,9 +5633,9 @@
       <c r="AY61" s="16"/>
       <c r="AZ61" s="16"/>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:52">
       <c r="A62" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62" s="9">
         <v>42446.690972222219</v>
@@ -5662,10 +5647,10 @@
         <v>4</v>
       </c>
       <c r="E62" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="26" t="s">
@@ -5716,7 +5701,7 @@
       <c r="AY62" s="16"/>
       <c r="AZ62" s="16"/>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:52">
       <c r="A63" s="10"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -5770,7 +5755,7 @@
       <c r="AY63" s="16"/>
       <c r="AZ63" s="16"/>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:52">
       <c r="A64" s="10"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -5824,7 +5809,7 @@
       <c r="AY64" s="16"/>
       <c r="AZ64" s="16"/>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:52">
       <c r="A65" s="10"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -5878,7 +5863,7 @@
       <c r="AY65" s="16"/>
       <c r="AZ65" s="16"/>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:52">
       <c r="A66" s="10"/>
       <c r="B66" s="6"/>
       <c r="C66" s="5"/>
@@ -5932,7 +5917,7 @@
       <c r="AY66" s="16"/>
       <c r="AZ66" s="16"/>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:52">
       <c r="A67" s="10"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -5986,7 +5971,7 @@
       <c r="AY67" s="16"/>
       <c r="AZ67" s="16"/>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:52">
       <c r="A68" s="10"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -6040,7 +6025,7 @@
       <c r="AY68" s="16"/>
       <c r="AZ68" s="16"/>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:52">
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -6088,7 +6073,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
@@ -6100,7 +6085,7 @@
     <col min="8" max="9" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" s="2" customFormat="1" ht="14.25">
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
@@ -6172,7 +6157,7 @@
       <c r="AY1" s="16"/>
       <c r="AZ1" s="16"/>
     </row>
-    <row r="2" spans="1:52" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" s="3" customFormat="1" ht="27">
       <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
@@ -6238,7 +6223,7 @@
       <c r="AY2" s="16"/>
       <c r="AZ2" s="16"/>
     </row>
-    <row r="3" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52" s="3" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
@@ -6292,7 +6277,7 @@
       <c r="AY3" s="16"/>
       <c r="AZ3" s="16"/>
     </row>
-    <row r="4" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" s="3" customFormat="1">
       <c r="A4" s="39"/>
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
@@ -6346,7 +6331,7 @@
       <c r="AY4" s="16"/>
       <c r="AZ4" s="16"/>
     </row>
-    <row r="5" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" s="3" customFormat="1">
       <c r="A5" s="39"/>
       <c r="B5" s="28"/>
       <c r="C5" s="30"/>
@@ -6400,7 +6385,7 @@
       <c r="AY5" s="16"/>
       <c r="AZ5" s="16"/>
     </row>
-    <row r="6" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" s="3" customFormat="1">
       <c r="A6" s="34"/>
       <c r="B6" s="28"/>
       <c r="C6" s="25"/>
@@ -6454,7 +6439,7 @@
       <c r="AY6" s="16"/>
       <c r="AZ6" s="16"/>
     </row>
-    <row r="7" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" s="3" customFormat="1">
       <c r="A7" s="34"/>
       <c r="B7" s="28"/>
       <c r="C7" s="25"/>
@@ -6508,7 +6493,7 @@
       <c r="AY7" s="16"/>
       <c r="AZ7" s="16"/>
     </row>
-    <row r="8" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" s="3" customFormat="1">
       <c r="A8" s="34"/>
       <c r="B8" s="28"/>
       <c r="C8" s="30"/>
@@ -6562,7 +6547,7 @@
       <c r="AY8" s="16"/>
       <c r="AZ8" s="16"/>
     </row>
-    <row r="9" spans="1:52" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
@@ -6616,7 +6601,7 @@
       <c r="AY9" s="16"/>
       <c r="AZ9" s="16"/>
     </row>
-    <row r="10" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" s="3" customFormat="1">
       <c r="A10" s="36"/>
       <c r="B10" s="35"/>
       <c r="C10" s="30"/>
@@ -6670,7 +6655,7 @@
       <c r="AY10" s="16"/>
       <c r="AZ10" s="16"/>
     </row>
-    <row r="11" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" s="3" customFormat="1">
       <c r="A11" s="36"/>
       <c r="B11" s="35"/>
       <c r="C11" s="30"/>
@@ -6724,7 +6709,7 @@
       <c r="AY11" s="16"/>
       <c r="AZ11" s="16"/>
     </row>
-    <row r="12" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" s="3" customFormat="1">
       <c r="A12" s="37"/>
       <c r="B12" s="35"/>
       <c r="C12" s="30"/>
@@ -6778,7 +6763,7 @@
       <c r="AY12" s="16"/>
       <c r="AZ12" s="16"/>
     </row>
-    <row r="13" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" s="3" customFormat="1">
       <c r="A13" s="36"/>
       <c r="B13" s="35"/>
       <c r="C13" s="25"/>
@@ -6832,7 +6817,7 @@
       <c r="AY13" s="16"/>
       <c r="AZ13" s="16"/>
     </row>
-    <row r="14" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" s="3" customFormat="1">
       <c r="A14" s="36"/>
       <c r="B14" s="35"/>
       <c r="C14" s="25"/>
@@ -6886,7 +6871,7 @@
       <c r="AY14" s="16"/>
       <c r="AZ14" s="16"/>
     </row>
-    <row r="15" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" s="3" customFormat="1">
       <c r="A15" s="37"/>
       <c r="B15" s="35"/>
       <c r="C15" s="30"/>
@@ -6956,7 +6941,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -755,8 +755,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Re:yb 2016-03-16 22:30
-Re:xy 2016-03-17 16:35</t>
+Re:yb 2016-03-17 16:35
+Re:xy 2016-03-16 22:30</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1323,6 +1323,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1346,9 +1349,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1661,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1678,45 +1678,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:52" s="12" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -5446,7 +5446,7 @@
       <c r="F59" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G59" s="50" t="s">
+      <c r="G59" s="42" t="s">
         <v>177</v>
       </c>
       <c r="H59" s="5" t="s">
@@ -6085,7 +6085,7 @@
     <col min="8" max="9" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="2" customFormat="1" ht="14.25">
+    <row r="1" spans="1:52" s="2" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="180">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -758,6 +758,14 @@
 Re:yb 2016-03-17 16:35
 Re:xy 2016-03-16 22:30</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调STM32F4XX的外部中断，顺便学习了一下GPIO的初始化和读写操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试能力还是不足啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1361,6 +1369,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1380,7 +1456,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1661,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62:G63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5701,15 +5777,29 @@
       <c r="AY62" s="16"/>
       <c r="AZ62" s="16"/>
     </row>
-    <row r="63" spans="1:52">
-      <c r="A63" s="10"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+    <row r="63" spans="1:52" ht="27">
+      <c r="A63" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="9">
+        <v>42446.990208333336</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="H63" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I63" s="5"/>
       <c r="J63" s="17"/>
       <c r="K63" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="183">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -768,12 +768,24 @@
     <t>调试能力还是不足啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>喻波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这人一闲下来就喜欢瞎JB想。薛雨这样天天加班到10点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我感觉有压迫感啊，我也要加油啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1369,74 +1381,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1449,14 +1393,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1737,11 +1681,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="E58" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
@@ -1753,7 +1697,7 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="1" customFormat="1">
+    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
         <v>5</v>
       </c>
@@ -1767,7 +1711,7 @@
       <c r="I1" s="48"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1">
+    <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>6</v>
       </c>
@@ -1781,7 +1725,7 @@
       <c r="I2" s="45"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:52" s="12" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:52" s="12" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
         <v>12</v>
       </c>
@@ -1837,7 +1781,7 @@
       <c r="AY3" s="13"/>
       <c r="AZ3" s="13"/>
     </row>
-    <row r="4" spans="1:52" s="2" customFormat="1" ht="14.25" thickTop="1">
+    <row r="4" spans="1:52" s="2" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -1909,7 +1853,7 @@
       <c r="AY4" s="16"/>
       <c r="AZ4" s="16"/>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1975,7 +1919,7 @@
       <c r="AY5" s="16"/>
       <c r="AZ5" s="16"/>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
@@ -2041,7 +1985,7 @@
       <c r="AY6" s="16"/>
       <c r="AZ6" s="16"/>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -2107,7 +2051,7 @@
       <c r="AY7" s="16"/>
       <c r="AZ7" s="16"/>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -2175,7 +2119,7 @@
       <c r="AY8" s="16"/>
       <c r="AZ8" s="16"/>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -2245,7 +2189,7 @@
       <c r="AY9" s="16"/>
       <c r="AZ9" s="16"/>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -2309,7 +2253,7 @@
       <c r="AY10" s="16"/>
       <c r="AZ10" s="16"/>
     </row>
-    <row r="11" spans="1:52" ht="54">
+    <row r="11" spans="1:52" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -2375,7 +2319,7 @@
       <c r="AY11" s="16"/>
       <c r="AZ11" s="16"/>
     </row>
-    <row r="12" spans="1:52" ht="12.75" customHeight="1">
+    <row r="12" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -2443,7 +2387,7 @@
       <c r="AY12" s="16"/>
       <c r="AZ12" s="16"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -2509,7 +2453,7 @@
       <c r="AY13" s="16"/>
       <c r="AZ13" s="16"/>
     </row>
-    <row r="14" spans="1:52" ht="27">
+    <row r="14" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
@@ -2577,7 +2521,7 @@
       <c r="AY14" s="16"/>
       <c r="AZ14" s="16"/>
     </row>
-    <row r="15" spans="1:52" ht="54">
+    <row r="15" spans="1:52" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>45</v>
       </c>
@@ -2645,7 +2589,7 @@
       <c r="AY15" s="16"/>
       <c r="AZ15" s="16"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>44</v>
       </c>
@@ -2711,7 +2655,7 @@
       <c r="AY16" s="16"/>
       <c r="AZ16" s="16"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>52</v>
       </c>
@@ -2775,7 +2719,7 @@
       <c r="AY17" s="16"/>
       <c r="AZ17" s="16"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>57</v>
       </c>
@@ -2841,7 +2785,7 @@
       <c r="AY18" s="16"/>
       <c r="AZ18" s="16"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>64</v>
       </c>
@@ -2907,7 +2851,7 @@
       <c r="AY19" s="16"/>
       <c r="AZ19" s="16"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>64</v>
       </c>
@@ -2973,7 +2917,7 @@
       <c r="AY20" s="16"/>
       <c r="AZ20" s="16"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>64</v>
       </c>
@@ -3039,7 +2983,7 @@
       <c r="AY21" s="16"/>
       <c r="AZ21" s="16"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>68</v>
       </c>
@@ -3105,7 +3049,7 @@
       <c r="AY22" s="16"/>
       <c r="AZ22" s="16"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>75</v>
       </c>
@@ -3171,7 +3115,7 @@
       <c r="AY23" s="16"/>
       <c r="AZ23" s="16"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>10</v>
       </c>
@@ -3235,7 +3179,7 @@
       <c r="AY24" s="16"/>
       <c r="AZ24" s="16"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>10</v>
       </c>
@@ -3299,7 +3243,7 @@
       <c r="AY25" s="16"/>
       <c r="AZ25" s="16"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>76</v>
       </c>
@@ -3365,7 +3309,7 @@
       <c r="AY26" s="16"/>
       <c r="AZ26" s="16"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>78</v>
       </c>
@@ -3431,7 +3375,7 @@
       <c r="AY27" s="16"/>
       <c r="AZ27" s="16"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>80</v>
       </c>
@@ -3497,7 +3441,7 @@
       <c r="AY28" s="16"/>
       <c r="AZ28" s="16"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>83</v>
       </c>
@@ -3563,7 +3507,7 @@
       <c r="AY29" s="16"/>
       <c r="AZ29" s="16"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>83</v>
       </c>
@@ -3629,7 +3573,7 @@
       <c r="AY30" s="16"/>
       <c r="AZ30" s="16"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>86</v>
       </c>
@@ -3695,7 +3639,7 @@
       <c r="AY31" s="16"/>
       <c r="AZ31" s="16"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>88</v>
       </c>
@@ -3761,7 +3705,7 @@
       <c r="AY32" s="16"/>
       <c r="AZ32" s="16"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>8</v>
       </c>
@@ -3827,7 +3771,7 @@
       <c r="AY33" s="16"/>
       <c r="AZ33" s="16"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>91</v>
       </c>
@@ -3891,7 +3835,7 @@
       <c r="AY34" s="16"/>
       <c r="AZ34" s="16"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>95</v>
       </c>
@@ -3957,7 +3901,7 @@
       <c r="AY35" s="16"/>
       <c r="AZ35" s="16"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>97</v>
       </c>
@@ -4023,7 +3967,7 @@
       <c r="AY36" s="16"/>
       <c r="AZ36" s="16"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>99</v>
       </c>
@@ -4089,7 +4033,7 @@
       <c r="AY37" s="16"/>
       <c r="AZ37" s="16"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>102</v>
       </c>
@@ -4155,7 +4099,7 @@
       <c r="AY38" s="16"/>
       <c r="AZ38" s="16"/>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>103</v>
       </c>
@@ -4219,7 +4163,7 @@
       <c r="AY39" s="16"/>
       <c r="AZ39" s="16"/>
     </row>
-    <row r="40" spans="1:52" ht="27">
+    <row r="40" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>108</v>
       </c>
@@ -4287,7 +4231,7 @@
       <c r="AY40" s="16"/>
       <c r="AZ40" s="16"/>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>111</v>
       </c>
@@ -4353,7 +4297,7 @@
       <c r="AY41" s="16"/>
       <c r="AZ41" s="16"/>
     </row>
-    <row r="42" spans="1:52" ht="94.5">
+    <row r="42" spans="1:52" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>113</v>
       </c>
@@ -4421,7 +4365,7 @@
       <c r="AY42" s="16"/>
       <c r="AZ42" s="16"/>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>113</v>
       </c>
@@ -4489,7 +4433,7 @@
       <c r="AY43" s="16"/>
       <c r="AZ43" s="16"/>
     </row>
-    <row r="44" spans="1:52" ht="40.5">
+    <row r="44" spans="1:52" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>113</v>
       </c>
@@ -4557,7 +4501,7 @@
       <c r="AY44" s="16"/>
       <c r="AZ44" s="16"/>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>119</v>
       </c>
@@ -4623,7 +4567,7 @@
       <c r="AY45" s="16"/>
       <c r="AZ45" s="16"/>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>123</v>
       </c>
@@ -4689,7 +4633,7 @@
       <c r="AY46" s="16"/>
       <c r="AZ46" s="16"/>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>125</v>
       </c>
@@ -4755,7 +4699,7 @@
       <c r="AY47" s="16"/>
       <c r="AZ47" s="16"/>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>128</v>
       </c>
@@ -4823,7 +4767,7 @@
       <c r="AY48" s="16"/>
       <c r="AZ48" s="16"/>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>10</v>
       </c>
@@ -4891,7 +4835,7 @@
       <c r="AY49" s="16"/>
       <c r="AZ49" s="16"/>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>135</v>
       </c>
@@ -4959,7 +4903,7 @@
       <c r="AY50" s="16"/>
       <c r="AZ50" s="16"/>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>138</v>
       </c>
@@ -5027,7 +4971,7 @@
       <c r="AY51" s="16"/>
       <c r="AZ51" s="16"/>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>140</v>
       </c>
@@ -5095,7 +5039,7 @@
       <c r="AY52" s="16"/>
       <c r="AZ52" s="16"/>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>144</v>
       </c>
@@ -5163,7 +5107,7 @@
       <c r="AY53" s="16"/>
       <c r="AZ53" s="16"/>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>148</v>
       </c>
@@ -5231,7 +5175,7 @@
       <c r="AY54" s="16"/>
       <c r="AZ54" s="16"/>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>10</v>
       </c>
@@ -5299,7 +5243,7 @@
       <c r="AY55" s="16"/>
       <c r="AZ55" s="16"/>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>155</v>
       </c>
@@ -5367,7 +5311,7 @@
       <c r="AY56" s="16"/>
       <c r="AZ56" s="16"/>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>158</v>
       </c>
@@ -5435,7 +5379,7 @@
       <c r="AY57" s="16"/>
       <c r="AZ57" s="16"/>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>161</v>
       </c>
@@ -5503,7 +5447,7 @@
       <c r="AY58" s="16"/>
       <c r="AZ58" s="16"/>
     </row>
-    <row r="59" spans="1:52" ht="40.5">
+    <row r="59" spans="1:52" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>164</v>
       </c>
@@ -5573,7 +5517,7 @@
       <c r="AY59" s="16"/>
       <c r="AZ59" s="16"/>
     </row>
-    <row r="60" spans="1:52" ht="27">
+    <row r="60" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>10</v>
       </c>
@@ -5641,7 +5585,7 @@
       <c r="AY60" s="16"/>
       <c r="AZ60" s="16"/>
     </row>
-    <row r="61" spans="1:52" ht="27">
+    <row r="61" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>170</v>
       </c>
@@ -5709,7 +5653,7 @@
       <c r="AY61" s="16"/>
       <c r="AZ61" s="16"/>
     </row>
-    <row r="62" spans="1:52">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
         <v>174</v>
       </c>
@@ -5777,7 +5721,7 @@
       <c r="AY62" s="16"/>
       <c r="AZ62" s="16"/>
     </row>
-    <row r="63" spans="1:52" ht="27">
+    <row r="63" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>10</v>
       </c>
@@ -5845,15 +5789,29 @@
       <c r="AY63" s="16"/>
       <c r="AZ63" s="16"/>
     </row>
-    <row r="64" spans="1:52">
-      <c r="A64" s="10"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+    <row r="64" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A64" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="9">
+        <v>42448.981944444444</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
+      <c r="H64" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I64" s="5"/>
       <c r="J64" s="17"/>
       <c r="K64" s="15"/>
@@ -5899,7 +5857,7 @@
       <c r="AY64" s="16"/>
       <c r="AZ64" s="16"/>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A65" s="10"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -5953,7 +5911,7 @@
       <c r="AY65" s="16"/>
       <c r="AZ65" s="16"/>
     </row>
-    <row r="66" spans="1:52">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A66" s="10"/>
       <c r="B66" s="6"/>
       <c r="C66" s="5"/>
@@ -6007,7 +5965,7 @@
       <c r="AY66" s="16"/>
       <c r="AZ66" s="16"/>
     </row>
-    <row r="67" spans="1:52">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A67" s="10"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -6061,7 +6019,7 @@
       <c r="AY67" s="16"/>
       <c r="AZ67" s="16"/>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A68" s="10"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -6115,7 +6073,7 @@
       <c r="AY68" s="16"/>
       <c r="AZ68" s="16"/>
     </row>
-    <row r="69" spans="1:52">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.15">
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -6163,7 +6121,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
@@ -6175,7 +6133,7 @@
     <col min="8" max="9" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="2" customFormat="1">
+    <row r="1" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
@@ -6247,7 +6205,7 @@
       <c r="AY1" s="16"/>
       <c r="AZ1" s="16"/>
     </row>
-    <row r="2" spans="1:52" s="3" customFormat="1" ht="27">
+    <row r="2" spans="1:52" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
@@ -6313,7 +6271,7 @@
       <c r="AY2" s="16"/>
       <c r="AZ2" s="16"/>
     </row>
-    <row r="3" spans="1:52" s="3" customFormat="1">
+    <row r="3" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34"/>
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
@@ -6367,7 +6325,7 @@
       <c r="AY3" s="16"/>
       <c r="AZ3" s="16"/>
     </row>
-    <row r="4" spans="1:52" s="3" customFormat="1">
+    <row r="4" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39"/>
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
@@ -6421,7 +6379,7 @@
       <c r="AY4" s="16"/>
       <c r="AZ4" s="16"/>
     </row>
-    <row r="5" spans="1:52" s="3" customFormat="1">
+    <row r="5" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="39"/>
       <c r="B5" s="28"/>
       <c r="C5" s="30"/>
@@ -6475,7 +6433,7 @@
       <c r="AY5" s="16"/>
       <c r="AZ5" s="16"/>
     </row>
-    <row r="6" spans="1:52" s="3" customFormat="1">
+    <row r="6" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34"/>
       <c r="B6" s="28"/>
       <c r="C6" s="25"/>
@@ -6529,7 +6487,7 @@
       <c r="AY6" s="16"/>
       <c r="AZ6" s="16"/>
     </row>
-    <row r="7" spans="1:52" s="3" customFormat="1">
+    <row r="7" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
       <c r="B7" s="28"/>
       <c r="C7" s="25"/>
@@ -6583,7 +6541,7 @@
       <c r="AY7" s="16"/>
       <c r="AZ7" s="16"/>
     </row>
-    <row r="8" spans="1:52" s="3" customFormat="1">
+    <row r="8" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34"/>
       <c r="B8" s="28"/>
       <c r="C8" s="30"/>
@@ -6637,7 +6595,7 @@
       <c r="AY8" s="16"/>
       <c r="AZ8" s="16"/>
     </row>
-    <row r="9" spans="1:52" s="3" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:52" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="27"/>
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
@@ -6691,7 +6649,7 @@
       <c r="AY9" s="16"/>
       <c r="AZ9" s="16"/>
     </row>
-    <row r="10" spans="1:52" s="3" customFormat="1">
+    <row r="10" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36"/>
       <c r="B10" s="35"/>
       <c r="C10" s="30"/>
@@ -6745,7 +6703,7 @@
       <c r="AY10" s="16"/>
       <c r="AZ10" s="16"/>
     </row>
-    <row r="11" spans="1:52" s="3" customFormat="1">
+    <row r="11" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36"/>
       <c r="B11" s="35"/>
       <c r="C11" s="30"/>
@@ -6799,7 +6757,7 @@
       <c r="AY11" s="16"/>
       <c r="AZ11" s="16"/>
     </row>
-    <row r="12" spans="1:52" s="3" customFormat="1">
+    <row r="12" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="35"/>
       <c r="C12" s="30"/>
@@ -6853,7 +6811,7 @@
       <c r="AY12" s="16"/>
       <c r="AZ12" s="16"/>
     </row>
-    <row r="13" spans="1:52" s="3" customFormat="1">
+    <row r="13" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36"/>
       <c r="B13" s="35"/>
       <c r="C13" s="25"/>
@@ -6907,7 +6865,7 @@
       <c r="AY13" s="16"/>
       <c r="AZ13" s="16"/>
     </row>
-    <row r="14" spans="1:52" s="3" customFormat="1">
+    <row r="14" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36"/>
       <c r="B14" s="35"/>
       <c r="C14" s="25"/>
@@ -6961,7 +6919,7 @@
       <c r="AY14" s="16"/>
       <c r="AZ14" s="16"/>
     </row>
-    <row r="15" spans="1:52" s="3" customFormat="1">
+    <row r="15" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
       <c r="B15" s="35"/>
       <c r="C15" s="30"/>
@@ -7031,7 +6989,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="186">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -778,6 +778,18 @@
   </si>
   <si>
     <t>我感觉有压迫感啊，我也要加油啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果然有计划效率高些。尽管没完成，但是还是有收获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1681,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E58" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="F61" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5858,14 +5870,28 @@
       <c r="AZ64" s="16"/>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A65" s="10"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="A65" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="9">
+        <v>42450.913888888892</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
+      <c r="H65" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I65" s="5"/>
       <c r="J65" s="17"/>
       <c r="K65" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="191">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -807,6 +807,15 @@
 3.20号到青羊区买自行车，，，，大出血。
 4.21号继续调localbus。原理有了模糊的概念，细节上还有很多不懂，所以调起来很吃力，跟不上同事的节奏。哎~~
 5.22号还是localbus。在同事的帮助下配置localbus的片选寄存器和读时序，效果还不错，但是读数还是存在问题。（最后，搞FPGA的同事将单片机发过去的问题时序作了转换，所以现在读数算是正常了，但最终可能还是要调时序，要达到一个时钟周期出一个数据吧）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花了一天时间，把项目需求，各部分人员的想法和情况确认了
+，最后留了一点时间调试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉很好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1372,6 +1381,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1395,9 +1407,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1779,7 +1788,7 @@
   <dimension ref="A1:AZ69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1795,45 +1804,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:52" s="11" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -6026,7 +6035,7 @@
       <c r="A66" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="50">
+      <c r="B66" s="42">
         <v>42452.068472222221</v>
       </c>
       <c r="C66" s="40" t="s">
@@ -6090,15 +6099,29 @@
       <c r="AY66" s="15"/>
       <c r="AZ66" s="15"/>
     </row>
-    <row r="67" spans="1:52">
-      <c r="A67" s="9"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
+    <row r="67" spans="1:52" ht="27">
+      <c r="A67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="8">
+        <v>42453.891319444447</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
+      <c r="H67" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="I67" s="5"/>
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="198">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -829,12 +829,28 @@
     <t>补丁演练明显是上头SB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>喻波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel自动排序[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录制宏的功能很强大，可以看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管他妈的先撸一管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1426,7 +1442,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1714,11 +1730,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
@@ -1730,7 +1746,7 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="1" customFormat="1">
+    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
         <v>5</v>
       </c>
@@ -1744,7 +1760,7 @@
       <c r="I1" s="47"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1">
+    <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
@@ -1758,7 +1774,7 @@
       <c r="I2" s="44"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:52" s="10" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:52" s="10" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>12</v>
       </c>
@@ -1814,7 +1830,7 @@
       <c r="AY3" s="11"/>
       <c r="AZ3" s="11"/>
     </row>
-    <row r="4" spans="1:52" s="2" customFormat="1" ht="14.25" thickTop="1">
+    <row r="4" spans="1:52" s="2" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1886,7 +1902,7 @@
       <c r="AY4" s="14"/>
       <c r="AZ4" s="14"/>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1952,7 +1968,7 @@
       <c r="AY5" s="14"/>
       <c r="AZ5" s="14"/>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -2018,7 +2034,7 @@
       <c r="AY6" s="14"/>
       <c r="AZ6" s="14"/>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -2084,7 +2100,7 @@
       <c r="AY7" s="14"/>
       <c r="AZ7" s="14"/>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -2152,7 +2168,7 @@
       <c r="AY8" s="14"/>
       <c r="AZ8" s="14"/>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
@@ -2222,7 +2238,7 @@
       <c r="AY9" s="14"/>
       <c r="AZ9" s="14"/>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -2286,7 +2302,7 @@
       <c r="AY10" s="14"/>
       <c r="AZ10" s="14"/>
     </row>
-    <row r="11" spans="1:52" ht="54">
+    <row r="11" spans="1:52" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
@@ -2352,7 +2368,7 @@
       <c r="AY11" s="14"/>
       <c r="AZ11" s="14"/>
     </row>
-    <row r="12" spans="1:52" ht="12.75" customHeight="1">
+    <row r="12" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -2420,7 +2436,7 @@
       <c r="AY12" s="14"/>
       <c r="AZ12" s="14"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
@@ -2486,7 +2502,7 @@
       <c r="AY13" s="14"/>
       <c r="AZ13" s="14"/>
     </row>
-    <row r="14" spans="1:52" ht="27">
+    <row r="14" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
@@ -2554,7 +2570,7 @@
       <c r="AY14" s="14"/>
       <c r="AZ14" s="14"/>
     </row>
-    <row r="15" spans="1:52" ht="54">
+    <row r="15" spans="1:52" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
@@ -2622,7 +2638,7 @@
       <c r="AY15" s="14"/>
       <c r="AZ15" s="14"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>44</v>
       </c>
@@ -2688,7 +2704,7 @@
       <c r="AY16" s="14"/>
       <c r="AZ16" s="14"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
@@ -2752,7 +2768,7 @@
       <c r="AY17" s="14"/>
       <c r="AZ17" s="14"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>57</v>
       </c>
@@ -2818,7 +2834,7 @@
       <c r="AY18" s="14"/>
       <c r="AZ18" s="14"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>64</v>
       </c>
@@ -2884,7 +2900,7 @@
       <c r="AY19" s="14"/>
       <c r="AZ19" s="14"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>64</v>
       </c>
@@ -2950,7 +2966,7 @@
       <c r="AY20" s="14"/>
       <c r="AZ20" s="14"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>64</v>
       </c>
@@ -3016,7 +3032,7 @@
       <c r="AY21" s="14"/>
       <c r="AZ21" s="14"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>68</v>
       </c>
@@ -3082,7 +3098,7 @@
       <c r="AY22" s="14"/>
       <c r="AZ22" s="14"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>75</v>
       </c>
@@ -3148,7 +3164,7 @@
       <c r="AY23" s="14"/>
       <c r="AZ23" s="14"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>10</v>
       </c>
@@ -3212,7 +3228,7 @@
       <c r="AY24" s="14"/>
       <c r="AZ24" s="14"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
@@ -3276,7 +3292,7 @@
       <c r="AY25" s="14"/>
       <c r="AZ25" s="14"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>76</v>
       </c>
@@ -3342,7 +3358,7 @@
       <c r="AY26" s="14"/>
       <c r="AZ26" s="14"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>78</v>
       </c>
@@ -3408,7 +3424,7 @@
       <c r="AY27" s="14"/>
       <c r="AZ27" s="14"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>80</v>
       </c>
@@ -3474,7 +3490,7 @@
       <c r="AY28" s="14"/>
       <c r="AZ28" s="14"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>83</v>
       </c>
@@ -3540,7 +3556,7 @@
       <c r="AY29" s="14"/>
       <c r="AZ29" s="14"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>83</v>
       </c>
@@ -3606,7 +3622,7 @@
       <c r="AY30" s="14"/>
       <c r="AZ30" s="14"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>86</v>
       </c>
@@ -3672,7 +3688,7 @@
       <c r="AY31" s="14"/>
       <c r="AZ31" s="14"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>88</v>
       </c>
@@ -3738,7 +3754,7 @@
       <c r="AY32" s="14"/>
       <c r="AZ32" s="14"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
         <v>8</v>
       </c>
@@ -3804,7 +3820,7 @@
       <c r="AY33" s="14"/>
       <c r="AZ33" s="14"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>91</v>
       </c>
@@ -3868,7 +3884,7 @@
       <c r="AY34" s="14"/>
       <c r="AZ34" s="14"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
         <v>95</v>
       </c>
@@ -3934,7 +3950,7 @@
       <c r="AY35" s="14"/>
       <c r="AZ35" s="14"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>97</v>
       </c>
@@ -4000,7 +4016,7 @@
       <c r="AY36" s="14"/>
       <c r="AZ36" s="14"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>99</v>
       </c>
@@ -4066,7 +4082,7 @@
       <c r="AY37" s="14"/>
       <c r="AZ37" s="14"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>102</v>
       </c>
@@ -4132,7 +4148,7 @@
       <c r="AY38" s="14"/>
       <c r="AZ38" s="14"/>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
         <v>103</v>
       </c>
@@ -4196,7 +4212,7 @@
       <c r="AY39" s="14"/>
       <c r="AZ39" s="14"/>
     </row>
-    <row r="40" spans="1:52" ht="27">
+    <row r="40" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>108</v>
       </c>
@@ -4264,7 +4280,7 @@
       <c r="AY40" s="14"/>
       <c r="AZ40" s="14"/>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
         <v>111</v>
       </c>
@@ -4330,7 +4346,7 @@
       <c r="AY41" s="14"/>
       <c r="AZ41" s="14"/>
     </row>
-    <row r="42" spans="1:52" ht="94.5">
+    <row r="42" spans="1:52" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>113</v>
       </c>
@@ -4398,7 +4414,7 @@
       <c r="AY42" s="14"/>
       <c r="AZ42" s="14"/>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
         <v>113</v>
       </c>
@@ -4466,7 +4482,7 @@
       <c r="AY43" s="14"/>
       <c r="AZ43" s="14"/>
     </row>
-    <row r="44" spans="1:52" ht="40.5">
+    <row r="44" spans="1:52" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>113</v>
       </c>
@@ -4534,7 +4550,7 @@
       <c r="AY44" s="14"/>
       <c r="AZ44" s="14"/>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
         <v>119</v>
       </c>
@@ -4600,7 +4616,7 @@
       <c r="AY45" s="14"/>
       <c r="AZ45" s="14"/>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
         <v>123</v>
       </c>
@@ -4666,7 +4682,7 @@
       <c r="AY46" s="14"/>
       <c r="AZ46" s="14"/>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
         <v>125</v>
       </c>
@@ -4732,7 +4748,7 @@
       <c r="AY47" s="14"/>
       <c r="AZ47" s="14"/>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
         <v>128</v>
       </c>
@@ -4800,7 +4816,7 @@
       <c r="AY48" s="14"/>
       <c r="AZ48" s="14"/>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
         <v>10</v>
       </c>
@@ -4868,7 +4884,7 @@
       <c r="AY49" s="14"/>
       <c r="AZ49" s="14"/>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
         <v>135</v>
       </c>
@@ -4936,7 +4952,7 @@
       <c r="AY50" s="14"/>
       <c r="AZ50" s="14"/>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>138</v>
       </c>
@@ -5004,7 +5020,7 @@
       <c r="AY51" s="14"/>
       <c r="AZ51" s="14"/>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
         <v>140</v>
       </c>
@@ -5072,7 +5088,7 @@
       <c r="AY52" s="14"/>
       <c r="AZ52" s="14"/>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
         <v>144</v>
       </c>
@@ -5140,7 +5156,7 @@
       <c r="AY53" s="14"/>
       <c r="AZ53" s="14"/>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
         <v>148</v>
       </c>
@@ -5208,7 +5224,7 @@
       <c r="AY54" s="14"/>
       <c r="AZ54" s="14"/>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>10</v>
       </c>
@@ -5276,7 +5292,7 @@
       <c r="AY55" s="14"/>
       <c r="AZ55" s="14"/>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
         <v>155</v>
       </c>
@@ -5344,7 +5360,7 @@
       <c r="AY56" s="14"/>
       <c r="AZ56" s="14"/>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
         <v>158</v>
       </c>
@@ -5412,7 +5428,7 @@
       <c r="AY57" s="14"/>
       <c r="AZ57" s="14"/>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
         <v>161</v>
       </c>
@@ -5480,7 +5496,7 @@
       <c r="AY58" s="14"/>
       <c r="AZ58" s="14"/>
     </row>
-    <row r="59" spans="1:52" ht="40.5">
+    <row r="59" spans="1:52" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>164</v>
       </c>
@@ -5550,7 +5566,7 @@
       <c r="AY59" s="14"/>
       <c r="AZ59" s="14"/>
     </row>
-    <row r="60" spans="1:52" ht="27">
+    <row r="60" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
         <v>10</v>
       </c>
@@ -5618,7 +5634,7 @@
       <c r="AY60" s="14"/>
       <c r="AZ60" s="14"/>
     </row>
-    <row r="61" spans="1:52" ht="27">
+    <row r="61" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
         <v>170</v>
       </c>
@@ -5686,7 +5702,7 @@
       <c r="AY61" s="14"/>
       <c r="AZ61" s="14"/>
     </row>
-    <row r="62" spans="1:52">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
         <v>174</v>
       </c>
@@ -5754,7 +5770,7 @@
       <c r="AY62" s="14"/>
       <c r="AZ62" s="14"/>
     </row>
-    <row r="63" spans="1:52" ht="27">
+    <row r="63" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
         <v>10</v>
       </c>
@@ -5822,7 +5838,7 @@
       <c r="AY63" s="14"/>
       <c r="AZ63" s="14"/>
     </row>
-    <row r="64" spans="1:52">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
         <v>180</v>
       </c>
@@ -5890,7 +5906,7 @@
       <c r="AY64" s="14"/>
       <c r="AZ64" s="14"/>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>183</v>
       </c>
@@ -5958,7 +5974,7 @@
       <c r="AY65" s="14"/>
       <c r="AZ65" s="14"/>
     </row>
-    <row r="66" spans="1:52" ht="148.5">
+    <row r="66" spans="1:52" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
         <v>186</v>
       </c>
@@ -6026,7 +6042,7 @@
       <c r="AY66" s="14"/>
       <c r="AZ66" s="14"/>
     </row>
-    <row r="67" spans="1:52" ht="27">
+    <row r="67" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
         <v>13</v>
       </c>
@@ -6094,7 +6110,7 @@
       <c r="AY67" s="14"/>
       <c r="AZ67" s="14"/>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
         <v>191</v>
       </c>
@@ -6162,18 +6178,32 @@
       <c r="AY68" s="14"/>
       <c r="AZ68" s="14"/>
     </row>
-    <row r="69" spans="1:52">
-      <c r="A69" s="8"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
+    <row r="69" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A69" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" s="7">
+        <v>42456.636805555558</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="H69" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -6184,7 +6214,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:52">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -6195,7 +6225,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:52">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -6206,7 +6236,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:52">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -6217,7 +6247,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:52">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -6228,7 +6258,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:52">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -6239,7 +6269,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:52">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -6250,7 +6280,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:52">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -6261,7 +6291,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:52">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6272,7 +6302,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:52">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6283,7 +6313,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:52">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -6294,7 +6324,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6305,7 +6335,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6316,7 +6346,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6327,7 +6357,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6338,7 +6368,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6349,7 +6379,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6360,7 +6390,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6371,7 +6401,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6382,7 +6412,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -6393,7 +6423,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -6404,7 +6434,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -6415,7 +6445,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -6426,7 +6456,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="8"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -6437,7 +6467,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="8"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -6448,7 +6478,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="8"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -6459,7 +6489,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="8"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -6470,7 +6500,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="8"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -6481,7 +6511,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="8"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -6492,7 +6522,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="8"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -6503,7 +6533,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="8"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -6514,7 +6544,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="8"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -6525,7 +6555,7 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="8"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -6536,7 +6566,7 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="8"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -6547,7 +6577,7 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="8"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -6558,7 +6588,7 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="8"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -6569,7 +6599,7 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="8"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -6580,7 +6610,7 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="8"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -6591,7 +6621,7 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="8"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -6602,7 +6632,7 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="8"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -6613,7 +6643,7 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="8"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -6624,7 +6654,7 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="8"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6635,7 +6665,7 @@
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="8"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -6646,7 +6676,7 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="8"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -6657,7 +6687,7 @@
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="8"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -6668,7 +6698,7 @@
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" s="8"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -6679,7 +6709,7 @@
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" s="8"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -6690,7 +6720,7 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" s="8"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -6701,7 +6731,7 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" s="8"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -6712,7 +6742,7 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119" s="8"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -6723,7 +6753,7 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" s="8"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -6734,7 +6764,7 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121" s="8"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -6745,7 +6775,7 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" s="8"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -6756,7 +6786,7 @@
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123" s="8"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -6767,7 +6797,7 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124" s="8"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -6778,7 +6808,7 @@
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125" s="8"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -6814,9 +6844,10 @@
     <hyperlink ref="C52" r:id="rId10"/>
     <hyperlink ref="C54" r:id="rId11" display="流程方法总结"/>
     <hyperlink ref="C59" r:id="rId12"/>
+    <hyperlink ref="C69" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -6828,7 +6859,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
@@ -6840,7 +6871,7 @@
     <col min="8" max="9" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="2" customFormat="1">
+    <row r="1" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -6912,7 +6943,7 @@
       <c r="AY1" s="14"/>
       <c r="AZ1" s="14"/>
     </row>
-    <row r="2" spans="1:52" s="3" customFormat="1" ht="27">
+    <row r="2" spans="1:52" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
@@ -6978,7 +7009,7 @@
       <c r="AY2" s="14"/>
       <c r="AZ2" s="14"/>
     </row>
-    <row r="3" spans="1:52" s="3" customFormat="1">
+    <row r="3" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
@@ -7032,7 +7063,7 @@
       <c r="AY3" s="14"/>
       <c r="AZ3" s="14"/>
     </row>
-    <row r="4" spans="1:52" s="3" customFormat="1">
+    <row r="4" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="37"/>
       <c r="B4" s="26"/>
       <c r="C4" s="27"/>
@@ -7086,7 +7117,7 @@
       <c r="AY4" s="14"/>
       <c r="AZ4" s="14"/>
     </row>
-    <row r="5" spans="1:52" s="3" customFormat="1">
+    <row r="5" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37"/>
       <c r="B5" s="26"/>
       <c r="C5" s="28"/>
@@ -7140,7 +7171,7 @@
       <c r="AY5" s="14"/>
       <c r="AZ5" s="14"/>
     </row>
-    <row r="6" spans="1:52" s="3" customFormat="1">
+    <row r="6" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32"/>
       <c r="B6" s="26"/>
       <c r="C6" s="23"/>
@@ -7194,7 +7225,7 @@
       <c r="AY6" s="14"/>
       <c r="AZ6" s="14"/>
     </row>
-    <row r="7" spans="1:52" s="3" customFormat="1">
+    <row r="7" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="32"/>
       <c r="B7" s="26"/>
       <c r="C7" s="23"/>
@@ -7248,7 +7279,7 @@
       <c r="AY7" s="14"/>
       <c r="AZ7" s="14"/>
     </row>
-    <row r="8" spans="1:52" s="3" customFormat="1">
+    <row r="8" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="32"/>
       <c r="B8" s="26"/>
       <c r="C8" s="28"/>
@@ -7302,7 +7333,7 @@
       <c r="AY8" s="14"/>
       <c r="AZ8" s="14"/>
     </row>
-    <row r="9" spans="1:52" s="3" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:52" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="27"/>
@@ -7356,7 +7387,7 @@
       <c r="AY9" s="14"/>
       <c r="AZ9" s="14"/>
     </row>
-    <row r="10" spans="1:52" s="3" customFormat="1">
+    <row r="10" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
       <c r="B10" s="33"/>
       <c r="C10" s="28"/>
@@ -7410,7 +7441,7 @@
       <c r="AY10" s="14"/>
       <c r="AZ10" s="14"/>
     </row>
-    <row r="11" spans="1:52" s="3" customFormat="1">
+    <row r="11" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="B11" s="33"/>
       <c r="C11" s="28"/>
@@ -7464,7 +7495,7 @@
       <c r="AY11" s="14"/>
       <c r="AZ11" s="14"/>
     </row>
-    <row r="12" spans="1:52" s="3" customFormat="1">
+    <row r="12" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="35"/>
       <c r="B12" s="33"/>
       <c r="C12" s="28"/>
@@ -7518,7 +7549,7 @@
       <c r="AY12" s="14"/>
       <c r="AZ12" s="14"/>
     </row>
-    <row r="13" spans="1:52" s="3" customFormat="1">
+    <row r="13" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
       <c r="B13" s="33"/>
       <c r="C13" s="23"/>
@@ -7572,7 +7603,7 @@
       <c r="AY13" s="14"/>
       <c r="AZ13" s="14"/>
     </row>
-    <row r="14" spans="1:52" s="3" customFormat="1">
+    <row r="14" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
       <c r="B14" s="33"/>
       <c r="C14" s="23"/>
@@ -7626,7 +7657,7 @@
       <c r="AY14" s="14"/>
       <c r="AZ14" s="14"/>
     </row>
-    <row r="15" spans="1:52" s="3" customFormat="1">
+    <row r="15" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35"/>
       <c r="B15" s="33"/>
       <c r="C15" s="28"/>
@@ -7696,7 +7727,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="201">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -845,12 +845,24 @@
     <t>管他妈的先撸一管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熬了三天夜，今晚早点睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就三点吧。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1430,6 +1442,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1442,14 +1522,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1730,11 +1810,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
@@ -1746,7 +1826,7 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" s="1" customFormat="1">
       <c r="A1" s="45" t="s">
         <v>5</v>
       </c>
@@ -1760,7 +1840,7 @@
       <c r="I1" s="47"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1">
       <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
@@ -1774,7 +1854,7 @@
       <c r="I2" s="44"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:52" s="10" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" s="10" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
       <c r="A3" s="48" t="s">
         <v>12</v>
       </c>
@@ -1830,7 +1910,7 @@
       <c r="AY3" s="11"/>
       <c r="AZ3" s="11"/>
     </row>
-    <row r="4" spans="1:52" s="2" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" s="2" customFormat="1" ht="14.25" thickTop="1">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1902,7 +1982,7 @@
       <c r="AY4" s="14"/>
       <c r="AZ4" s="14"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1968,7 +2048,7 @@
       <c r="AY5" s="14"/>
       <c r="AZ5" s="14"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -2034,7 +2114,7 @@
       <c r="AY6" s="14"/>
       <c r="AZ6" s="14"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -2100,7 +2180,7 @@
       <c r="AY7" s="14"/>
       <c r="AZ7" s="14"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -2168,7 +2248,7 @@
       <c r="AY8" s="14"/>
       <c r="AZ8" s="14"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
@@ -2238,7 +2318,7 @@
       <c r="AY9" s="14"/>
       <c r="AZ9" s="14"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -2302,7 +2382,7 @@
       <c r="AY10" s="14"/>
       <c r="AZ10" s="14"/>
     </row>
-    <row r="11" spans="1:52" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" ht="54">
       <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
@@ -2368,7 +2448,7 @@
       <c r="AY11" s="14"/>
       <c r="AZ11" s="14"/>
     </row>
-    <row r="12" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" ht="12.75" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -2436,7 +2516,7 @@
       <c r="AY12" s="14"/>
       <c r="AZ12" s="14"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
@@ -2502,7 +2582,7 @@
       <c r="AY13" s="14"/>
       <c r="AZ13" s="14"/>
     </row>
-    <row r="14" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" ht="27">
       <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
@@ -2570,7 +2650,7 @@
       <c r="AY14" s="14"/>
       <c r="AZ14" s="14"/>
     </row>
-    <row r="15" spans="1:52" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" ht="54">
       <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
@@ -2638,7 +2718,7 @@
       <c r="AY15" s="14"/>
       <c r="AZ15" s="14"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="8" t="s">
         <v>44</v>
       </c>
@@ -2704,7 +2784,7 @@
       <c r="AY16" s="14"/>
       <c r="AZ16" s="14"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
@@ -2768,7 +2848,7 @@
       <c r="AY17" s="14"/>
       <c r="AZ17" s="14"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="8" t="s">
         <v>57</v>
       </c>
@@ -2834,7 +2914,7 @@
       <c r="AY18" s="14"/>
       <c r="AZ18" s="14"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="8" t="s">
         <v>64</v>
       </c>
@@ -2900,7 +2980,7 @@
       <c r="AY19" s="14"/>
       <c r="AZ19" s="14"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="8" t="s">
         <v>64</v>
       </c>
@@ -2966,7 +3046,7 @@
       <c r="AY20" s="14"/>
       <c r="AZ20" s="14"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="8" t="s">
         <v>64</v>
       </c>
@@ -3032,7 +3112,7 @@
       <c r="AY21" s="14"/>
       <c r="AZ21" s="14"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="8" t="s">
         <v>68</v>
       </c>
@@ -3098,7 +3178,7 @@
       <c r="AY22" s="14"/>
       <c r="AZ22" s="14"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="8" t="s">
         <v>75</v>
       </c>
@@ -3164,7 +3244,7 @@
       <c r="AY23" s="14"/>
       <c r="AZ23" s="14"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="8" t="s">
         <v>10</v>
       </c>
@@ -3228,7 +3308,7 @@
       <c r="AY24" s="14"/>
       <c r="AZ24" s="14"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
@@ -3292,7 +3372,7 @@
       <c r="AY25" s="14"/>
       <c r="AZ25" s="14"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="8" t="s">
         <v>76</v>
       </c>
@@ -3358,7 +3438,7 @@
       <c r="AY26" s="14"/>
       <c r="AZ26" s="14"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="8" t="s">
         <v>78</v>
       </c>
@@ -3424,7 +3504,7 @@
       <c r="AY27" s="14"/>
       <c r="AZ27" s="14"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="8" t="s">
         <v>80</v>
       </c>
@@ -3490,7 +3570,7 @@
       <c r="AY28" s="14"/>
       <c r="AZ28" s="14"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="8" t="s">
         <v>83</v>
       </c>
@@ -3556,7 +3636,7 @@
       <c r="AY29" s="14"/>
       <c r="AZ29" s="14"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="8" t="s">
         <v>83</v>
       </c>
@@ -3622,7 +3702,7 @@
       <c r="AY30" s="14"/>
       <c r="AZ30" s="14"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="8" t="s">
         <v>86</v>
       </c>
@@ -3688,7 +3768,7 @@
       <c r="AY31" s="14"/>
       <c r="AZ31" s="14"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="8" t="s">
         <v>88</v>
       </c>
@@ -3754,7 +3834,7 @@
       <c r="AY32" s="14"/>
       <c r="AZ32" s="14"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="8" t="s">
         <v>8</v>
       </c>
@@ -3820,7 +3900,7 @@
       <c r="AY33" s="14"/>
       <c r="AZ33" s="14"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="8" t="s">
         <v>91</v>
       </c>
@@ -3884,7 +3964,7 @@
       <c r="AY34" s="14"/>
       <c r="AZ34" s="14"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="8" t="s">
         <v>95</v>
       </c>
@@ -3950,7 +4030,7 @@
       <c r="AY35" s="14"/>
       <c r="AZ35" s="14"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="8" t="s">
         <v>97</v>
       </c>
@@ -4016,7 +4096,7 @@
       <c r="AY36" s="14"/>
       <c r="AZ36" s="14"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="8" t="s">
         <v>99</v>
       </c>
@@ -4082,7 +4162,7 @@
       <c r="AY37" s="14"/>
       <c r="AZ37" s="14"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="8" t="s">
         <v>102</v>
       </c>
@@ -4148,7 +4228,7 @@
       <c r="AY38" s="14"/>
       <c r="AZ38" s="14"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:52">
       <c r="A39" s="8" t="s">
         <v>103</v>
       </c>
@@ -4212,7 +4292,7 @@
       <c r="AY39" s="14"/>
       <c r="AZ39" s="14"/>
     </row>
-    <row r="40" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:52" ht="27">
       <c r="A40" s="8" t="s">
         <v>108</v>
       </c>
@@ -4280,7 +4360,7 @@
       <c r="AY40" s="14"/>
       <c r="AZ40" s="14"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:52">
       <c r="A41" s="8" t="s">
         <v>111</v>
       </c>
@@ -4346,7 +4426,7 @@
       <c r="AY41" s="14"/>
       <c r="AZ41" s="14"/>
     </row>
-    <row r="42" spans="1:52" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:52" ht="94.5">
       <c r="A42" s="8" t="s">
         <v>113</v>
       </c>
@@ -4414,7 +4494,7 @@
       <c r="AY42" s="14"/>
       <c r="AZ42" s="14"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:52">
       <c r="A43" s="8" t="s">
         <v>113</v>
       </c>
@@ -4482,7 +4562,7 @@
       <c r="AY43" s="14"/>
       <c r="AZ43" s="14"/>
     </row>
-    <row r="44" spans="1:52" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:52" ht="40.5">
       <c r="A44" s="8" t="s">
         <v>113</v>
       </c>
@@ -4550,7 +4630,7 @@
       <c r="AY44" s="14"/>
       <c r="AZ44" s="14"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:52">
       <c r="A45" s="8" t="s">
         <v>119</v>
       </c>
@@ -4616,7 +4696,7 @@
       <c r="AY45" s="14"/>
       <c r="AZ45" s="14"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:52">
       <c r="A46" s="8" t="s">
         <v>123</v>
       </c>
@@ -4682,7 +4762,7 @@
       <c r="AY46" s="14"/>
       <c r="AZ46" s="14"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:52">
       <c r="A47" s="8" t="s">
         <v>125</v>
       </c>
@@ -4748,7 +4828,7 @@
       <c r="AY47" s="14"/>
       <c r="AZ47" s="14"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:52">
       <c r="A48" s="8" t="s">
         <v>128</v>
       </c>
@@ -4816,7 +4896,7 @@
       <c r="AY48" s="14"/>
       <c r="AZ48" s="14"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:52">
       <c r="A49" s="8" t="s">
         <v>10</v>
       </c>
@@ -4884,7 +4964,7 @@
       <c r="AY49" s="14"/>
       <c r="AZ49" s="14"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:52">
       <c r="A50" s="8" t="s">
         <v>135</v>
       </c>
@@ -4952,7 +5032,7 @@
       <c r="AY50" s="14"/>
       <c r="AZ50" s="14"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:52">
       <c r="A51" s="8" t="s">
         <v>138</v>
       </c>
@@ -5020,7 +5100,7 @@
       <c r="AY51" s="14"/>
       <c r="AZ51" s="14"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:52">
       <c r="A52" s="8" t="s">
         <v>140</v>
       </c>
@@ -5088,7 +5168,7 @@
       <c r="AY52" s="14"/>
       <c r="AZ52" s="14"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:52">
       <c r="A53" s="8" t="s">
         <v>144</v>
       </c>
@@ -5156,7 +5236,7 @@
       <c r="AY53" s="14"/>
       <c r="AZ53" s="14"/>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:52">
       <c r="A54" s="8" t="s">
         <v>148</v>
       </c>
@@ -5224,7 +5304,7 @@
       <c r="AY54" s="14"/>
       <c r="AZ54" s="14"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:52">
       <c r="A55" s="8" t="s">
         <v>10</v>
       </c>
@@ -5292,7 +5372,7 @@
       <c r="AY55" s="14"/>
       <c r="AZ55" s="14"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:52">
       <c r="A56" s="8" t="s">
         <v>155</v>
       </c>
@@ -5360,7 +5440,7 @@
       <c r="AY56" s="14"/>
       <c r="AZ56" s="14"/>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:52">
       <c r="A57" s="8" t="s">
         <v>158</v>
       </c>
@@ -5428,7 +5508,7 @@
       <c r="AY57" s="14"/>
       <c r="AZ57" s="14"/>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:52">
       <c r="A58" s="8" t="s">
         <v>161</v>
       </c>
@@ -5496,7 +5576,7 @@
       <c r="AY58" s="14"/>
       <c r="AZ58" s="14"/>
     </row>
-    <row r="59" spans="1:52" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:52" ht="40.5">
       <c r="A59" s="8" t="s">
         <v>164</v>
       </c>
@@ -5566,7 +5646,7 @@
       <c r="AY59" s="14"/>
       <c r="AZ59" s="14"/>
     </row>
-    <row r="60" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:52" ht="27">
       <c r="A60" s="8" t="s">
         <v>10</v>
       </c>
@@ -5634,7 +5714,7 @@
       <c r="AY60" s="14"/>
       <c r="AZ60" s="14"/>
     </row>
-    <row r="61" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:52" ht="27">
       <c r="A61" s="8" t="s">
         <v>170</v>
       </c>
@@ -5702,7 +5782,7 @@
       <c r="AY61" s="14"/>
       <c r="AZ61" s="14"/>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:52">
       <c r="A62" s="8" t="s">
         <v>174</v>
       </c>
@@ -5770,7 +5850,7 @@
       <c r="AY62" s="14"/>
       <c r="AZ62" s="14"/>
     </row>
-    <row r="63" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:52" ht="27">
       <c r="A63" s="8" t="s">
         <v>10</v>
       </c>
@@ -5838,7 +5918,7 @@
       <c r="AY63" s="14"/>
       <c r="AZ63" s="14"/>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:52">
       <c r="A64" s="8" t="s">
         <v>180</v>
       </c>
@@ -5906,7 +5986,7 @@
       <c r="AY64" s="14"/>
       <c r="AZ64" s="14"/>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:52">
       <c r="A65" s="8" t="s">
         <v>183</v>
       </c>
@@ -5974,7 +6054,7 @@
       <c r="AY65" s="14"/>
       <c r="AZ65" s="14"/>
     </row>
-    <row r="66" spans="1:52" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:52" ht="148.5">
       <c r="A66" s="8" t="s">
         <v>186</v>
       </c>
@@ -6042,7 +6122,7 @@
       <c r="AY66" s="14"/>
       <c r="AZ66" s="14"/>
     </row>
-    <row r="67" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:52" ht="27">
       <c r="A67" s="8" t="s">
         <v>13</v>
       </c>
@@ -6110,7 +6190,7 @@
       <c r="AY67" s="14"/>
       <c r="AZ67" s="14"/>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:52">
       <c r="A68" s="8" t="s">
         <v>191</v>
       </c>
@@ -6178,7 +6258,7 @@
       <c r="AY68" s="14"/>
       <c r="AZ68" s="14"/>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:52">
       <c r="A69" s="8" t="s">
         <v>194</v>
       </c>
@@ -6203,18 +6283,32 @@
       </c>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A70" s="8"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+    <row r="70" spans="1:52">
+      <c r="A70" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="7">
+        <v>42460.026030092595</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
+      <c r="H70" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:52">
       <c r="A71" s="8"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -6225,7 +6319,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:52">
       <c r="A72" s="8"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -6236,7 +6330,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:52">
       <c r="A73" s="8"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -6247,7 +6341,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:52">
       <c r="A74" s="8"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -6258,7 +6352,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:52">
       <c r="A75" s="8"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -6269,7 +6363,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:52">
       <c r="A76" s="8"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -6280,7 +6374,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:52">
       <c r="A77" s="8"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -6291,7 +6385,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:52">
       <c r="A78" s="8"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6302,7 +6396,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:52">
       <c r="A79" s="8"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6313,7 +6407,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:52">
       <c r="A80" s="8"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -6324,7 +6418,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9">
       <c r="A81" s="8"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6335,7 +6429,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9">
       <c r="A82" s="8"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6346,7 +6440,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9">
       <c r="A83" s="8"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6357,7 +6451,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9">
       <c r="A84" s="8"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6368,7 +6462,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9">
       <c r="A85" s="8"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6379,7 +6473,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9">
       <c r="A86" s="8"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6390,7 +6484,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9">
       <c r="A87" s="8"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6401,7 +6495,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9">
       <c r="A88" s="8"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6412,7 +6506,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9">
       <c r="A89" s="8"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -6423,7 +6517,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9">
       <c r="A90" s="8"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -6434,7 +6528,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9">
       <c r="A91" s="8"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -6445,7 +6539,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9">
       <c r="A92" s="8"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -6456,7 +6550,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9">
       <c r="A93" s="8"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -6467,7 +6561,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9">
       <c r="A94" s="8"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -6478,7 +6572,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9">
       <c r="A95" s="8"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -6489,7 +6583,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9">
       <c r="A96" s="8"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -6500,7 +6594,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9">
       <c r="A97" s="8"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -6511,7 +6605,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9">
       <c r="A98" s="8"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -6522,7 +6616,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9">
       <c r="A99" s="8"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -6533,7 +6627,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9">
       <c r="A100" s="8"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -6544,7 +6638,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9">
       <c r="A101" s="8"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -6555,7 +6649,7 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9">
       <c r="A102" s="8"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -6566,7 +6660,7 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9">
       <c r="A103" s="8"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -6577,7 +6671,7 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9">
       <c r="A104" s="8"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -6588,7 +6682,7 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9">
       <c r="A105" s="8"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -6599,7 +6693,7 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9">
       <c r="A106" s="8"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -6610,7 +6704,7 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9">
       <c r="A107" s="8"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -6621,7 +6715,7 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9">
       <c r="A108" s="8"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -6632,7 +6726,7 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9">
       <c r="A109" s="8"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -6643,7 +6737,7 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9">
       <c r="A110" s="8"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -6654,7 +6748,7 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9">
       <c r="A111" s="8"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6665,7 +6759,7 @@
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9">
       <c r="A112" s="8"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -6676,7 +6770,7 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9">
       <c r="A113" s="8"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -6687,7 +6781,7 @@
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9">
       <c r="A114" s="8"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -6698,7 +6792,7 @@
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9">
       <c r="A115" s="8"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -6709,7 +6803,7 @@
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9">
       <c r="A116" s="8"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -6720,7 +6814,7 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9">
       <c r="A117" s="8"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -6731,7 +6825,7 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9">
       <c r="A118" s="8"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -6742,7 +6836,7 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9">
       <c r="A119" s="8"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -6753,7 +6847,7 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9">
       <c r="A120" s="8"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -6764,7 +6858,7 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9">
       <c r="A121" s="8"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -6775,7 +6869,7 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9">
       <c r="A122" s="8"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -6786,7 +6880,7 @@
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9">
       <c r="A123" s="8"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -6797,7 +6891,7 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9">
       <c r="A124" s="8"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -6808,7 +6902,7 @@
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9">
       <c r="A125" s="8"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -6859,7 +6953,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
@@ -6871,7 +6965,7 @@
     <col min="8" max="9" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" s="2" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -6943,7 +7037,7 @@
       <c r="AY1" s="14"/>
       <c r="AZ1" s="14"/>
     </row>
-    <row r="2" spans="1:52" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" s="3" customFormat="1" ht="27">
       <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
@@ -7009,7 +7103,7 @@
       <c r="AY2" s="14"/>
       <c r="AZ2" s="14"/>
     </row>
-    <row r="3" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52" s="3" customFormat="1">
       <c r="A3" s="32"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
@@ -7063,7 +7157,7 @@
       <c r="AY3" s="14"/>
       <c r="AZ3" s="14"/>
     </row>
-    <row r="4" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" s="3" customFormat="1">
       <c r="A4" s="37"/>
       <c r="B4" s="26"/>
       <c r="C4" s="27"/>
@@ -7117,7 +7211,7 @@
       <c r="AY4" s="14"/>
       <c r="AZ4" s="14"/>
     </row>
-    <row r="5" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" s="3" customFormat="1">
       <c r="A5" s="37"/>
       <c r="B5" s="26"/>
       <c r="C5" s="28"/>
@@ -7171,7 +7265,7 @@
       <c r="AY5" s="14"/>
       <c r="AZ5" s="14"/>
     </row>
-    <row r="6" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" s="3" customFormat="1">
       <c r="A6" s="32"/>
       <c r="B6" s="26"/>
       <c r="C6" s="23"/>
@@ -7225,7 +7319,7 @@
       <c r="AY6" s="14"/>
       <c r="AZ6" s="14"/>
     </row>
-    <row r="7" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" s="3" customFormat="1">
       <c r="A7" s="32"/>
       <c r="B7" s="26"/>
       <c r="C7" s="23"/>
@@ -7279,7 +7373,7 @@
       <c r="AY7" s="14"/>
       <c r="AZ7" s="14"/>
     </row>
-    <row r="8" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" s="3" customFormat="1">
       <c r="A8" s="32"/>
       <c r="B8" s="26"/>
       <c r="C8" s="28"/>
@@ -7333,7 +7427,7 @@
       <c r="AY8" s="14"/>
       <c r="AZ8" s="14"/>
     </row>
-    <row r="9" spans="1:52" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="27"/>
@@ -7387,7 +7481,7 @@
       <c r="AY9" s="14"/>
       <c r="AZ9" s="14"/>
     </row>
-    <row r="10" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" s="3" customFormat="1">
       <c r="A10" s="34"/>
       <c r="B10" s="33"/>
       <c r="C10" s="28"/>
@@ -7441,7 +7535,7 @@
       <c r="AY10" s="14"/>
       <c r="AZ10" s="14"/>
     </row>
-    <row r="11" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" s="3" customFormat="1">
       <c r="A11" s="34"/>
       <c r="B11" s="33"/>
       <c r="C11" s="28"/>
@@ -7495,7 +7589,7 @@
       <c r="AY11" s="14"/>
       <c r="AZ11" s="14"/>
     </row>
-    <row r="12" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" s="3" customFormat="1">
       <c r="A12" s="35"/>
       <c r="B12" s="33"/>
       <c r="C12" s="28"/>
@@ -7549,7 +7643,7 @@
       <c r="AY12" s="14"/>
       <c r="AZ12" s="14"/>
     </row>
-    <row r="13" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" s="3" customFormat="1">
       <c r="A13" s="34"/>
       <c r="B13" s="33"/>
       <c r="C13" s="23"/>
@@ -7603,7 +7697,7 @@
       <c r="AY13" s="14"/>
       <c r="AZ13" s="14"/>
     </row>
-    <row r="14" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" s="3" customFormat="1">
       <c r="A14" s="34"/>
       <c r="B14" s="33"/>
       <c r="C14" s="23"/>
@@ -7657,7 +7751,7 @@
       <c r="AY14" s="14"/>
       <c r="AZ14" s="14"/>
     </row>
-    <row r="15" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" s="3" customFormat="1">
       <c r="A15" s="35"/>
       <c r="B15" s="33"/>
       <c r="C15" s="28"/>
@@ -7727,7 +7821,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="204">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -857,12 +857,24 @@
     <t>就三点吧。。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习计划不能荒废了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻波 你的随笔我悄悄评论了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,74 +1454,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1522,14 +1466,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1597,6 +1541,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1632,6 +1593,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1811,10 +1789,10 @@
   <dimension ref="A1:AZ125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
@@ -1826,7 +1804,7 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="1" customFormat="1">
+    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
         <v>5</v>
       </c>
@@ -1840,7 +1818,7 @@
       <c r="I1" s="47"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1">
+    <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
@@ -1854,7 +1832,7 @@
       <c r="I2" s="44"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:52" s="10" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:52" s="10" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>12</v>
       </c>
@@ -1910,7 +1888,7 @@
       <c r="AY3" s="11"/>
       <c r="AZ3" s="11"/>
     </row>
-    <row r="4" spans="1:52" s="2" customFormat="1" ht="14.25" thickTop="1">
+    <row r="4" spans="1:52" s="2" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1982,7 +1960,7 @@
       <c r="AY4" s="14"/>
       <c r="AZ4" s="14"/>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -2048,7 +2026,7 @@
       <c r="AY5" s="14"/>
       <c r="AZ5" s="14"/>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -2114,7 +2092,7 @@
       <c r="AY6" s="14"/>
       <c r="AZ6" s="14"/>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -2180,7 +2158,7 @@
       <c r="AY7" s="14"/>
       <c r="AZ7" s="14"/>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -2248,7 +2226,7 @@
       <c r="AY8" s="14"/>
       <c r="AZ8" s="14"/>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
@@ -2318,7 +2296,7 @@
       <c r="AY9" s="14"/>
       <c r="AZ9" s="14"/>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -2382,7 +2360,7 @@
       <c r="AY10" s="14"/>
       <c r="AZ10" s="14"/>
     </row>
-    <row r="11" spans="1:52" ht="54">
+    <row r="11" spans="1:52" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
@@ -2448,7 +2426,7 @@
       <c r="AY11" s="14"/>
       <c r="AZ11" s="14"/>
     </row>
-    <row r="12" spans="1:52" ht="12.75" customHeight="1">
+    <row r="12" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -2516,7 +2494,7 @@
       <c r="AY12" s="14"/>
       <c r="AZ12" s="14"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
@@ -2582,7 +2560,7 @@
       <c r="AY13" s="14"/>
       <c r="AZ13" s="14"/>
     </row>
-    <row r="14" spans="1:52" ht="27">
+    <row r="14" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
@@ -2650,7 +2628,7 @@
       <c r="AY14" s="14"/>
       <c r="AZ14" s="14"/>
     </row>
-    <row r="15" spans="1:52" ht="54">
+    <row r="15" spans="1:52" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
@@ -2718,7 +2696,7 @@
       <c r="AY15" s="14"/>
       <c r="AZ15" s="14"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>44</v>
       </c>
@@ -2784,7 +2762,7 @@
       <c r="AY16" s="14"/>
       <c r="AZ16" s="14"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
@@ -2848,7 +2826,7 @@
       <c r="AY17" s="14"/>
       <c r="AZ17" s="14"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>57</v>
       </c>
@@ -2914,7 +2892,7 @@
       <c r="AY18" s="14"/>
       <c r="AZ18" s="14"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>64</v>
       </c>
@@ -2980,7 +2958,7 @@
       <c r="AY19" s="14"/>
       <c r="AZ19" s="14"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>64</v>
       </c>
@@ -3046,7 +3024,7 @@
       <c r="AY20" s="14"/>
       <c r="AZ20" s="14"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>64</v>
       </c>
@@ -3112,7 +3090,7 @@
       <c r="AY21" s="14"/>
       <c r="AZ21" s="14"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>68</v>
       </c>
@@ -3178,7 +3156,7 @@
       <c r="AY22" s="14"/>
       <c r="AZ22" s="14"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>75</v>
       </c>
@@ -3244,7 +3222,7 @@
       <c r="AY23" s="14"/>
       <c r="AZ23" s="14"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>10</v>
       </c>
@@ -3308,7 +3286,7 @@
       <c r="AY24" s="14"/>
       <c r="AZ24" s="14"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
@@ -3372,7 +3350,7 @@
       <c r="AY25" s="14"/>
       <c r="AZ25" s="14"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>76</v>
       </c>
@@ -3438,7 +3416,7 @@
       <c r="AY26" s="14"/>
       <c r="AZ26" s="14"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>78</v>
       </c>
@@ -3504,7 +3482,7 @@
       <c r="AY27" s="14"/>
       <c r="AZ27" s="14"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>80</v>
       </c>
@@ -3570,7 +3548,7 @@
       <c r="AY28" s="14"/>
       <c r="AZ28" s="14"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>83</v>
       </c>
@@ -3636,7 +3614,7 @@
       <c r="AY29" s="14"/>
       <c r="AZ29" s="14"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>83</v>
       </c>
@@ -3702,7 +3680,7 @@
       <c r="AY30" s="14"/>
       <c r="AZ30" s="14"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>86</v>
       </c>
@@ -3768,7 +3746,7 @@
       <c r="AY31" s="14"/>
       <c r="AZ31" s="14"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>88</v>
       </c>
@@ -3834,7 +3812,7 @@
       <c r="AY32" s="14"/>
       <c r="AZ32" s="14"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
         <v>8</v>
       </c>
@@ -3900,7 +3878,7 @@
       <c r="AY33" s="14"/>
       <c r="AZ33" s="14"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>91</v>
       </c>
@@ -3964,7 +3942,7 @@
       <c r="AY34" s="14"/>
       <c r="AZ34" s="14"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
         <v>95</v>
       </c>
@@ -4030,7 +4008,7 @@
       <c r="AY35" s="14"/>
       <c r="AZ35" s="14"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>97</v>
       </c>
@@ -4096,7 +4074,7 @@
       <c r="AY36" s="14"/>
       <c r="AZ36" s="14"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>99</v>
       </c>
@@ -4162,7 +4140,7 @@
       <c r="AY37" s="14"/>
       <c r="AZ37" s="14"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>102</v>
       </c>
@@ -4228,7 +4206,7 @@
       <c r="AY38" s="14"/>
       <c r="AZ38" s="14"/>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
         <v>103</v>
       </c>
@@ -4292,7 +4270,7 @@
       <c r="AY39" s="14"/>
       <c r="AZ39" s="14"/>
     </row>
-    <row r="40" spans="1:52" ht="27">
+    <row r="40" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>108</v>
       </c>
@@ -4360,7 +4338,7 @@
       <c r="AY40" s="14"/>
       <c r="AZ40" s="14"/>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
         <v>111</v>
       </c>
@@ -4426,7 +4404,7 @@
       <c r="AY41" s="14"/>
       <c r="AZ41" s="14"/>
     </row>
-    <row r="42" spans="1:52" ht="94.5">
+    <row r="42" spans="1:52" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>113</v>
       </c>
@@ -4494,7 +4472,7 @@
       <c r="AY42" s="14"/>
       <c r="AZ42" s="14"/>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
         <v>113</v>
       </c>
@@ -4562,7 +4540,7 @@
       <c r="AY43" s="14"/>
       <c r="AZ43" s="14"/>
     </row>
-    <row r="44" spans="1:52" ht="40.5">
+    <row r="44" spans="1:52" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>113</v>
       </c>
@@ -4630,7 +4608,7 @@
       <c r="AY44" s="14"/>
       <c r="AZ44" s="14"/>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
         <v>119</v>
       </c>
@@ -4696,7 +4674,7 @@
       <c r="AY45" s="14"/>
       <c r="AZ45" s="14"/>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
         <v>123</v>
       </c>
@@ -4762,7 +4740,7 @@
       <c r="AY46" s="14"/>
       <c r="AZ46" s="14"/>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
         <v>125</v>
       </c>
@@ -4828,7 +4806,7 @@
       <c r="AY47" s="14"/>
       <c r="AZ47" s="14"/>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
         <v>128</v>
       </c>
@@ -4896,7 +4874,7 @@
       <c r="AY48" s="14"/>
       <c r="AZ48" s="14"/>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
         <v>10</v>
       </c>
@@ -4964,7 +4942,7 @@
       <c r="AY49" s="14"/>
       <c r="AZ49" s="14"/>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
         <v>135</v>
       </c>
@@ -5032,7 +5010,7 @@
       <c r="AY50" s="14"/>
       <c r="AZ50" s="14"/>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>138</v>
       </c>
@@ -5100,7 +5078,7 @@
       <c r="AY51" s="14"/>
       <c r="AZ51" s="14"/>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
         <v>140</v>
       </c>
@@ -5168,7 +5146,7 @@
       <c r="AY52" s="14"/>
       <c r="AZ52" s="14"/>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
         <v>144</v>
       </c>
@@ -5236,7 +5214,7 @@
       <c r="AY53" s="14"/>
       <c r="AZ53" s="14"/>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
         <v>148</v>
       </c>
@@ -5304,7 +5282,7 @@
       <c r="AY54" s="14"/>
       <c r="AZ54" s="14"/>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>10</v>
       </c>
@@ -5372,7 +5350,7 @@
       <c r="AY55" s="14"/>
       <c r="AZ55" s="14"/>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
         <v>155</v>
       </c>
@@ -5440,7 +5418,7 @@
       <c r="AY56" s="14"/>
       <c r="AZ56" s="14"/>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
         <v>158</v>
       </c>
@@ -5508,7 +5486,7 @@
       <c r="AY57" s="14"/>
       <c r="AZ57" s="14"/>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
         <v>161</v>
       </c>
@@ -5576,7 +5554,7 @@
       <c r="AY58" s="14"/>
       <c r="AZ58" s="14"/>
     </row>
-    <row r="59" spans="1:52" ht="40.5">
+    <row r="59" spans="1:52" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>164</v>
       </c>
@@ -5646,7 +5624,7 @@
       <c r="AY59" s="14"/>
       <c r="AZ59" s="14"/>
     </row>
-    <row r="60" spans="1:52" ht="27">
+    <row r="60" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
         <v>10</v>
       </c>
@@ -5714,7 +5692,7 @@
       <c r="AY60" s="14"/>
       <c r="AZ60" s="14"/>
     </row>
-    <row r="61" spans="1:52" ht="27">
+    <row r="61" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
         <v>170</v>
       </c>
@@ -5782,7 +5760,7 @@
       <c r="AY61" s="14"/>
       <c r="AZ61" s="14"/>
     </row>
-    <row r="62" spans="1:52">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
         <v>174</v>
       </c>
@@ -5850,7 +5828,7 @@
       <c r="AY62" s="14"/>
       <c r="AZ62" s="14"/>
     </row>
-    <row r="63" spans="1:52" ht="27">
+    <row r="63" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
         <v>10</v>
       </c>
@@ -5918,7 +5896,7 @@
       <c r="AY63" s="14"/>
       <c r="AZ63" s="14"/>
     </row>
-    <row r="64" spans="1:52">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
         <v>180</v>
       </c>
@@ -5986,7 +5964,7 @@
       <c r="AY64" s="14"/>
       <c r="AZ64" s="14"/>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>183</v>
       </c>
@@ -6054,7 +6032,7 @@
       <c r="AY65" s="14"/>
       <c r="AZ65" s="14"/>
     </row>
-    <row r="66" spans="1:52" ht="148.5">
+    <row r="66" spans="1:52" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
         <v>186</v>
       </c>
@@ -6122,7 +6100,7 @@
       <c r="AY66" s="14"/>
       <c r="AZ66" s="14"/>
     </row>
-    <row r="67" spans="1:52" ht="27">
+    <row r="67" spans="1:52" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
         <v>13</v>
       </c>
@@ -6190,7 +6168,7 @@
       <c r="AY67" s="14"/>
       <c r="AZ67" s="14"/>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
         <v>191</v>
       </c>
@@ -6258,7 +6236,7 @@
       <c r="AY68" s="14"/>
       <c r="AZ68" s="14"/>
     </row>
-    <row r="69" spans="1:52">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
         <v>194</v>
       </c>
@@ -6283,7 +6261,7 @@
       </c>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
         <v>198</v>
       </c>
@@ -6308,18 +6286,32 @@
       </c>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:52">
-      <c r="A71" s="8"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+    <row r="71" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A71" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="7">
+        <v>42514.842662037037</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
+      <c r="H71" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:52">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -6330,7 +6322,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:52">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -6341,7 +6333,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:52">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -6352,7 +6344,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:52">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -6363,7 +6355,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:52">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -6374,7 +6366,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:52">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -6385,7 +6377,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:52">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6396,7 +6388,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:52">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6407,7 +6399,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:52">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -6418,7 +6410,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6429,7 +6421,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6440,7 +6432,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6451,7 +6443,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6462,7 +6454,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6473,7 +6465,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6484,7 +6476,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6495,7 +6487,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6506,7 +6498,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -6517,7 +6509,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -6528,7 +6520,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -6539,7 +6531,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -6550,7 +6542,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="8"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -6561,7 +6553,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="8"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -6572,7 +6564,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="8"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -6583,7 +6575,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="8"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -6594,7 +6586,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="8"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -6605,7 +6597,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="8"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -6616,7 +6608,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="8"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -6627,7 +6619,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="8"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -6638,7 +6630,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="8"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -6649,7 +6641,7 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="8"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -6660,7 +6652,7 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="8"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -6671,7 +6663,7 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="8"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -6682,7 +6674,7 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="8"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -6693,7 +6685,7 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="8"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -6704,7 +6696,7 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="8"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -6715,7 +6707,7 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="8"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -6726,7 +6718,7 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="8"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -6737,7 +6729,7 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="8"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -6748,7 +6740,7 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="8"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6759,7 +6751,7 @@
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="8"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -6770,7 +6762,7 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="8"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -6781,7 +6773,7 @@
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="8"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -6792,7 +6784,7 @@
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" s="8"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -6803,7 +6795,7 @@
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" s="8"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -6814,7 +6806,7 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" s="8"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -6825,7 +6817,7 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" s="8"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -6836,7 +6828,7 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119" s="8"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -6847,7 +6839,7 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" s="8"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -6858,7 +6850,7 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121" s="8"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -6869,7 +6861,7 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" s="8"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -6880,7 +6872,7 @@
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123" s="8"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -6891,7 +6883,7 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124" s="8"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -6902,7 +6894,7 @@
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125" s="8"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -6953,7 +6945,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
@@ -6965,7 +6957,7 @@
     <col min="8" max="9" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="2" customFormat="1">
+    <row r="1" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -7037,7 +7029,7 @@
       <c r="AY1" s="14"/>
       <c r="AZ1" s="14"/>
     </row>
-    <row r="2" spans="1:52" s="3" customFormat="1" ht="27">
+    <row r="2" spans="1:52" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
@@ -7103,7 +7095,7 @@
       <c r="AY2" s="14"/>
       <c r="AZ2" s="14"/>
     </row>
-    <row r="3" spans="1:52" s="3" customFormat="1">
+    <row r="3" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
@@ -7157,7 +7149,7 @@
       <c r="AY3" s="14"/>
       <c r="AZ3" s="14"/>
     </row>
-    <row r="4" spans="1:52" s="3" customFormat="1">
+    <row r="4" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="37"/>
       <c r="B4" s="26"/>
       <c r="C4" s="27"/>
@@ -7211,7 +7203,7 @@
       <c r="AY4" s="14"/>
       <c r="AZ4" s="14"/>
     </row>
-    <row r="5" spans="1:52" s="3" customFormat="1">
+    <row r="5" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37"/>
       <c r="B5" s="26"/>
       <c r="C5" s="28"/>
@@ -7265,7 +7257,7 @@
       <c r="AY5" s="14"/>
       <c r="AZ5" s="14"/>
     </row>
-    <row r="6" spans="1:52" s="3" customFormat="1">
+    <row r="6" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32"/>
       <c r="B6" s="26"/>
       <c r="C6" s="23"/>
@@ -7319,7 +7311,7 @@
       <c r="AY6" s="14"/>
       <c r="AZ6" s="14"/>
     </row>
-    <row r="7" spans="1:52" s="3" customFormat="1">
+    <row r="7" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="32"/>
       <c r="B7" s="26"/>
       <c r="C7" s="23"/>
@@ -7373,7 +7365,7 @@
       <c r="AY7" s="14"/>
       <c r="AZ7" s="14"/>
     </row>
-    <row r="8" spans="1:52" s="3" customFormat="1">
+    <row r="8" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="32"/>
       <c r="B8" s="26"/>
       <c r="C8" s="28"/>
@@ -7427,7 +7419,7 @@
       <c r="AY8" s="14"/>
       <c r="AZ8" s="14"/>
     </row>
-    <row r="9" spans="1:52" s="3" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:52" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="27"/>
@@ -7481,7 +7473,7 @@
       <c r="AY9" s="14"/>
       <c r="AZ9" s="14"/>
     </row>
-    <row r="10" spans="1:52" s="3" customFormat="1">
+    <row r="10" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
       <c r="B10" s="33"/>
       <c r="C10" s="28"/>
@@ -7535,7 +7527,7 @@
       <c r="AY10" s="14"/>
       <c r="AZ10" s="14"/>
     </row>
-    <row r="11" spans="1:52" s="3" customFormat="1">
+    <row r="11" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="B11" s="33"/>
       <c r="C11" s="28"/>
@@ -7589,7 +7581,7 @@
       <c r="AY11" s="14"/>
       <c r="AZ11" s="14"/>
     </row>
-    <row r="12" spans="1:52" s="3" customFormat="1">
+    <row r="12" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="35"/>
       <c r="B12" s="33"/>
       <c r="C12" s="28"/>
@@ -7643,7 +7635,7 @@
       <c r="AY12" s="14"/>
       <c r="AZ12" s="14"/>
     </row>
-    <row r="13" spans="1:52" s="3" customFormat="1">
+    <row r="13" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
       <c r="B13" s="33"/>
       <c r="C13" s="23"/>
@@ -7697,7 +7689,7 @@
       <c r="AY13" s="14"/>
       <c r="AZ13" s="14"/>
     </row>
-    <row r="14" spans="1:52" s="3" customFormat="1">
+    <row r="14" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
       <c r="B14" s="33"/>
       <c r="C14" s="23"/>
@@ -7751,7 +7743,7 @@
       <c r="AY14" s="14"/>
       <c r="AZ14" s="14"/>
     </row>
-    <row r="15" spans="1:52" s="3" customFormat="1">
+    <row r="15" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35"/>
       <c r="B15" s="33"/>
       <c r="C15" s="28"/>
@@ -7821,7 +7813,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="207">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -867,6 +867,18 @@
   </si>
   <si>
     <t>喻波 你的随笔我悄悄评论了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说的对，但是薛雨那逗比又打游戏去了，还说自己很忙没时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼上的快别说了，你不说我都忘了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1788,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6294,7 +6306,7 @@
         <v>42514.842662037037</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D71" s="39" t="s">
         <v>4</v>
@@ -6312,14 +6324,28 @@
       <c r="I71" s="4"/>
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A72" s="8"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="A72" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" s="7">
+        <v>42522.407638888886</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
+      <c r="H72" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="I72" s="4"/>
     </row>
     <row r="73" spans="1:52" x14ac:dyDescent="0.15">

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="208">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,12 +881,16 @@
     <t>楼上的快别说了，你不说我都忘了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>签个到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1478,7 +1482,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1553,23 +1557,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1605,23 +1592,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1801,10 +1771,10 @@
   <dimension ref="A1:AZ125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
@@ -1816,7 +1786,7 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" s="1" customFormat="1">
       <c r="A1" s="45" t="s">
         <v>5</v>
       </c>
@@ -1830,7 +1800,7 @@
       <c r="I1" s="47"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" s="1" customFormat="1" ht="40.5" customHeight="1">
       <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
@@ -1844,7 +1814,7 @@
       <c r="I2" s="44"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:52" s="10" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" s="10" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
       <c r="A3" s="48" t="s">
         <v>12</v>
       </c>
@@ -1900,7 +1870,7 @@
       <c r="AY3" s="11"/>
       <c r="AZ3" s="11"/>
     </row>
-    <row r="4" spans="1:52" s="2" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" s="2" customFormat="1" ht="14.25" thickTop="1">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1972,7 +1942,7 @@
       <c r="AY4" s="14"/>
       <c r="AZ4" s="14"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -2038,7 +2008,7 @@
       <c r="AY5" s="14"/>
       <c r="AZ5" s="14"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2074,7 @@
       <c r="AY6" s="14"/>
       <c r="AZ6" s="14"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -2170,7 +2140,7 @@
       <c r="AY7" s="14"/>
       <c r="AZ7" s="14"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -2238,7 +2208,7 @@
       <c r="AY8" s="14"/>
       <c r="AZ8" s="14"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
@@ -2308,7 +2278,7 @@
       <c r="AY9" s="14"/>
       <c r="AZ9" s="14"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -2372,7 +2342,7 @@
       <c r="AY10" s="14"/>
       <c r="AZ10" s="14"/>
     </row>
-    <row r="11" spans="1:52" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" ht="54">
       <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
@@ -2438,7 +2408,7 @@
       <c r="AY11" s="14"/>
       <c r="AZ11" s="14"/>
     </row>
-    <row r="12" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" ht="12.75" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -2506,7 +2476,7 @@
       <c r="AY12" s="14"/>
       <c r="AZ12" s="14"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
@@ -2572,7 +2542,7 @@
       <c r="AY13" s="14"/>
       <c r="AZ13" s="14"/>
     </row>
-    <row r="14" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" ht="27">
       <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
@@ -2640,7 +2610,7 @@
       <c r="AY14" s="14"/>
       <c r="AZ14" s="14"/>
     </row>
-    <row r="15" spans="1:52" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" ht="54">
       <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
@@ -2708,7 +2678,7 @@
       <c r="AY15" s="14"/>
       <c r="AZ15" s="14"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="8" t="s">
         <v>44</v>
       </c>
@@ -2774,7 +2744,7 @@
       <c r="AY16" s="14"/>
       <c r="AZ16" s="14"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
@@ -2838,7 +2808,7 @@
       <c r="AY17" s="14"/>
       <c r="AZ17" s="14"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="8" t="s">
         <v>57</v>
       </c>
@@ -2904,7 +2874,7 @@
       <c r="AY18" s="14"/>
       <c r="AZ18" s="14"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="8" t="s">
         <v>64</v>
       </c>
@@ -2970,7 +2940,7 @@
       <c r="AY19" s="14"/>
       <c r="AZ19" s="14"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="8" t="s">
         <v>64</v>
       </c>
@@ -3036,7 +3006,7 @@
       <c r="AY20" s="14"/>
       <c r="AZ20" s="14"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="8" t="s">
         <v>64</v>
       </c>
@@ -3102,7 +3072,7 @@
       <c r="AY21" s="14"/>
       <c r="AZ21" s="14"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="8" t="s">
         <v>68</v>
       </c>
@@ -3168,7 +3138,7 @@
       <c r="AY22" s="14"/>
       <c r="AZ22" s="14"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="8" t="s">
         <v>75</v>
       </c>
@@ -3234,7 +3204,7 @@
       <c r="AY23" s="14"/>
       <c r="AZ23" s="14"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="8" t="s">
         <v>10</v>
       </c>
@@ -3298,7 +3268,7 @@
       <c r="AY24" s="14"/>
       <c r="AZ24" s="14"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
@@ -3362,7 +3332,7 @@
       <c r="AY25" s="14"/>
       <c r="AZ25" s="14"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="8" t="s">
         <v>76</v>
       </c>
@@ -3428,7 +3398,7 @@
       <c r="AY26" s="14"/>
       <c r="AZ26" s="14"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="8" t="s">
         <v>78</v>
       </c>
@@ -3494,7 +3464,7 @@
       <c r="AY27" s="14"/>
       <c r="AZ27" s="14"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="8" t="s">
         <v>80</v>
       </c>
@@ -3560,7 +3530,7 @@
       <c r="AY28" s="14"/>
       <c r="AZ28" s="14"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="8" t="s">
         <v>83</v>
       </c>
@@ -3626,7 +3596,7 @@
       <c r="AY29" s="14"/>
       <c r="AZ29" s="14"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="8" t="s">
         <v>83</v>
       </c>
@@ -3692,7 +3662,7 @@
       <c r="AY30" s="14"/>
       <c r="AZ30" s="14"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="8" t="s">
         <v>86</v>
       </c>
@@ -3758,7 +3728,7 @@
       <c r="AY31" s="14"/>
       <c r="AZ31" s="14"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="8" t="s">
         <v>88</v>
       </c>
@@ -3824,7 +3794,7 @@
       <c r="AY32" s="14"/>
       <c r="AZ32" s="14"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="8" t="s">
         <v>8</v>
       </c>
@@ -3890,7 +3860,7 @@
       <c r="AY33" s="14"/>
       <c r="AZ33" s="14"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="8" t="s">
         <v>91</v>
       </c>
@@ -3954,7 +3924,7 @@
       <c r="AY34" s="14"/>
       <c r="AZ34" s="14"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="8" t="s">
         <v>95</v>
       </c>
@@ -4020,7 +3990,7 @@
       <c r="AY35" s="14"/>
       <c r="AZ35" s="14"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="8" t="s">
         <v>97</v>
       </c>
@@ -4086,7 +4056,7 @@
       <c r="AY36" s="14"/>
       <c r="AZ36" s="14"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="8" t="s">
         <v>99</v>
       </c>
@@ -4152,7 +4122,7 @@
       <c r="AY37" s="14"/>
       <c r="AZ37" s="14"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="8" t="s">
         <v>102</v>
       </c>
@@ -4218,7 +4188,7 @@
       <c r="AY38" s="14"/>
       <c r="AZ38" s="14"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:52">
       <c r="A39" s="8" t="s">
         <v>103</v>
       </c>
@@ -4282,7 +4252,7 @@
       <c r="AY39" s="14"/>
       <c r="AZ39" s="14"/>
     </row>
-    <row r="40" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:52" ht="27">
       <c r="A40" s="8" t="s">
         <v>108</v>
       </c>
@@ -4350,7 +4320,7 @@
       <c r="AY40" s="14"/>
       <c r="AZ40" s="14"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:52">
       <c r="A41" s="8" t="s">
         <v>111</v>
       </c>
@@ -4416,7 +4386,7 @@
       <c r="AY41" s="14"/>
       <c r="AZ41" s="14"/>
     </row>
-    <row r="42" spans="1:52" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:52" ht="94.5">
       <c r="A42" s="8" t="s">
         <v>113</v>
       </c>
@@ -4484,7 +4454,7 @@
       <c r="AY42" s="14"/>
       <c r="AZ42" s="14"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:52">
       <c r="A43" s="8" t="s">
         <v>113</v>
       </c>
@@ -4552,7 +4522,7 @@
       <c r="AY43" s="14"/>
       <c r="AZ43" s="14"/>
     </row>
-    <row r="44" spans="1:52" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:52" ht="40.5">
       <c r="A44" s="8" t="s">
         <v>113</v>
       </c>
@@ -4620,7 +4590,7 @@
       <c r="AY44" s="14"/>
       <c r="AZ44" s="14"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:52">
       <c r="A45" s="8" t="s">
         <v>119</v>
       </c>
@@ -4686,7 +4656,7 @@
       <c r="AY45" s="14"/>
       <c r="AZ45" s="14"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:52">
       <c r="A46" s="8" t="s">
         <v>123</v>
       </c>
@@ -4752,7 +4722,7 @@
       <c r="AY46" s="14"/>
       <c r="AZ46" s="14"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:52">
       <c r="A47" s="8" t="s">
         <v>125</v>
       </c>
@@ -4818,7 +4788,7 @@
       <c r="AY47" s="14"/>
       <c r="AZ47" s="14"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:52">
       <c r="A48" s="8" t="s">
         <v>128</v>
       </c>
@@ -4886,7 +4856,7 @@
       <c r="AY48" s="14"/>
       <c r="AZ48" s="14"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:52">
       <c r="A49" s="8" t="s">
         <v>10</v>
       </c>
@@ -4954,7 +4924,7 @@
       <c r="AY49" s="14"/>
       <c r="AZ49" s="14"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:52">
       <c r="A50" s="8" t="s">
         <v>135</v>
       </c>
@@ -5022,7 +4992,7 @@
       <c r="AY50" s="14"/>
       <c r="AZ50" s="14"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:52">
       <c r="A51" s="8" t="s">
         <v>138</v>
       </c>
@@ -5090,7 +5060,7 @@
       <c r="AY51" s="14"/>
       <c r="AZ51" s="14"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:52">
       <c r="A52" s="8" t="s">
         <v>140</v>
       </c>
@@ -5158,7 +5128,7 @@
       <c r="AY52" s="14"/>
       <c r="AZ52" s="14"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:52">
       <c r="A53" s="8" t="s">
         <v>144</v>
       </c>
@@ -5226,7 +5196,7 @@
       <c r="AY53" s="14"/>
       <c r="AZ53" s="14"/>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:52">
       <c r="A54" s="8" t="s">
         <v>148</v>
       </c>
@@ -5294,7 +5264,7 @@
       <c r="AY54" s="14"/>
       <c r="AZ54" s="14"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:52">
       <c r="A55" s="8" t="s">
         <v>10</v>
       </c>
@@ -5362,7 +5332,7 @@
       <c r="AY55" s="14"/>
       <c r="AZ55" s="14"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:52">
       <c r="A56" s="8" t="s">
         <v>155</v>
       </c>
@@ -5430,7 +5400,7 @@
       <c r="AY56" s="14"/>
       <c r="AZ56" s="14"/>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:52">
       <c r="A57" s="8" t="s">
         <v>158</v>
       </c>
@@ -5498,7 +5468,7 @@
       <c r="AY57" s="14"/>
       <c r="AZ57" s="14"/>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:52">
       <c r="A58" s="8" t="s">
         <v>161</v>
       </c>
@@ -5566,7 +5536,7 @@
       <c r="AY58" s="14"/>
       <c r="AZ58" s="14"/>
     </row>
-    <row r="59" spans="1:52" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:52" ht="40.5">
       <c r="A59" s="8" t="s">
         <v>164</v>
       </c>
@@ -5636,7 +5606,7 @@
       <c r="AY59" s="14"/>
       <c r="AZ59" s="14"/>
     </row>
-    <row r="60" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:52" ht="27">
       <c r="A60" s="8" t="s">
         <v>10</v>
       </c>
@@ -5704,7 +5674,7 @@
       <c r="AY60" s="14"/>
       <c r="AZ60" s="14"/>
     </row>
-    <row r="61" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:52" ht="27">
       <c r="A61" s="8" t="s">
         <v>170</v>
       </c>
@@ -5772,7 +5742,7 @@
       <c r="AY61" s="14"/>
       <c r="AZ61" s="14"/>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:52">
       <c r="A62" s="8" t="s">
         <v>174</v>
       </c>
@@ -5840,7 +5810,7 @@
       <c r="AY62" s="14"/>
       <c r="AZ62" s="14"/>
     </row>
-    <row r="63" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:52" ht="27">
       <c r="A63" s="8" t="s">
         <v>10</v>
       </c>
@@ -5908,7 +5878,7 @@
       <c r="AY63" s="14"/>
       <c r="AZ63" s="14"/>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:52">
       <c r="A64" s="8" t="s">
         <v>180</v>
       </c>
@@ -5976,7 +5946,7 @@
       <c r="AY64" s="14"/>
       <c r="AZ64" s="14"/>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:52">
       <c r="A65" s="8" t="s">
         <v>183</v>
       </c>
@@ -6044,7 +6014,7 @@
       <c r="AY65" s="14"/>
       <c r="AZ65" s="14"/>
     </row>
-    <row r="66" spans="1:52" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:52" ht="148.5">
       <c r="A66" s="8" t="s">
         <v>186</v>
       </c>
@@ -6112,7 +6082,7 @@
       <c r="AY66" s="14"/>
       <c r="AZ66" s="14"/>
     </row>
-    <row r="67" spans="1:52" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:52" ht="27">
       <c r="A67" s="8" t="s">
         <v>13</v>
       </c>
@@ -6180,7 +6150,7 @@
       <c r="AY67" s="14"/>
       <c r="AZ67" s="14"/>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:52">
       <c r="A68" s="8" t="s">
         <v>191</v>
       </c>
@@ -6248,7 +6218,7 @@
       <c r="AY68" s="14"/>
       <c r="AZ68" s="14"/>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:52">
       <c r="A69" s="8" t="s">
         <v>194</v>
       </c>
@@ -6273,7 +6243,7 @@
       </c>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:52">
       <c r="A70" s="8" t="s">
         <v>198</v>
       </c>
@@ -6298,7 +6268,7 @@
       </c>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:52">
       <c r="A71" s="8" t="s">
         <v>201</v>
       </c>
@@ -6323,7 +6293,7 @@
       </c>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:52">
       <c r="A72" s="8" t="s">
         <v>204</v>
       </c>
@@ -6348,18 +6318,32 @@
       </c>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A73" s="8"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+    <row r="73" spans="1:52">
+      <c r="A73" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="7">
+        <v>42601.462083333332</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
+      <c r="H73" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:52">
       <c r="A74" s="8"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -6370,7 +6354,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:52">
       <c r="A75" s="8"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -6381,7 +6365,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:52">
       <c r="A76" s="8"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -6392,7 +6376,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:52">
       <c r="A77" s="8"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -6403,7 +6387,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:52">
       <c r="A78" s="8"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6414,7 +6398,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:52">
       <c r="A79" s="8"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6425,7 +6409,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:52">
       <c r="A80" s="8"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -6436,7 +6420,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9">
       <c r="A81" s="8"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6447,7 +6431,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9">
       <c r="A82" s="8"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6458,7 +6442,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9">
       <c r="A83" s="8"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6469,7 +6453,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9">
       <c r="A84" s="8"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6480,7 +6464,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9">
       <c r="A85" s="8"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6491,7 +6475,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9">
       <c r="A86" s="8"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6502,7 +6486,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9">
       <c r="A87" s="8"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6513,7 +6497,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9">
       <c r="A88" s="8"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6524,7 +6508,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9">
       <c r="A89" s="8"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -6535,7 +6519,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9">
       <c r="A90" s="8"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -6546,7 +6530,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9">
       <c r="A91" s="8"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -6557,7 +6541,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9">
       <c r="A92" s="8"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -6568,7 +6552,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9">
       <c r="A93" s="8"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -6579,7 +6563,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9">
       <c r="A94" s="8"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -6590,7 +6574,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9">
       <c r="A95" s="8"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -6601,7 +6585,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9">
       <c r="A96" s="8"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -6612,7 +6596,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9">
       <c r="A97" s="8"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -6623,7 +6607,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9">
       <c r="A98" s="8"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -6634,7 +6618,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9">
       <c r="A99" s="8"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -6645,7 +6629,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9">
       <c r="A100" s="8"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -6656,7 +6640,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9">
       <c r="A101" s="8"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -6667,7 +6651,7 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9">
       <c r="A102" s="8"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -6678,7 +6662,7 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9">
       <c r="A103" s="8"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -6689,7 +6673,7 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9">
       <c r="A104" s="8"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -6700,7 +6684,7 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9">
       <c r="A105" s="8"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -6711,7 +6695,7 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9">
       <c r="A106" s="8"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -6722,7 +6706,7 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9">
       <c r="A107" s="8"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -6733,7 +6717,7 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9">
       <c r="A108" s="8"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -6744,7 +6728,7 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9">
       <c r="A109" s="8"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -6755,7 +6739,7 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9">
       <c r="A110" s="8"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -6766,7 +6750,7 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9">
       <c r="A111" s="8"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6777,7 +6761,7 @@
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9">
       <c r="A112" s="8"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -6788,7 +6772,7 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9">
       <c r="A113" s="8"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -6799,7 +6783,7 @@
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9">
       <c r="A114" s="8"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -6810,7 +6794,7 @@
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9">
       <c r="A115" s="8"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -6821,7 +6805,7 @@
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9">
       <c r="A116" s="8"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -6832,7 +6816,7 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9">
       <c r="A117" s="8"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -6843,7 +6827,7 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9">
       <c r="A118" s="8"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -6854,7 +6838,7 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9">
       <c r="A119" s="8"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -6865,7 +6849,7 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9">
       <c r="A120" s="8"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -6876,7 +6860,7 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9">
       <c r="A121" s="8"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -6887,7 +6871,7 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9">
       <c r="A122" s="8"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -6898,7 +6882,7 @@
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9">
       <c r="A123" s="8"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -6909,7 +6893,7 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9">
       <c r="A124" s="8"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -6920,7 +6904,7 @@
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9">
       <c r="A125" s="8"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -6971,7 +6955,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
@@ -6983,7 +6967,7 @@
     <col min="8" max="9" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" s="2" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -7055,7 +7039,7 @@
       <c r="AY1" s="14"/>
       <c r="AZ1" s="14"/>
     </row>
-    <row r="2" spans="1:52" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" s="3" customFormat="1" ht="27">
       <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
@@ -7121,7 +7105,7 @@
       <c r="AY2" s="14"/>
       <c r="AZ2" s="14"/>
     </row>
-    <row r="3" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52" s="3" customFormat="1">
       <c r="A3" s="32"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
@@ -7175,7 +7159,7 @@
       <c r="AY3" s="14"/>
       <c r="AZ3" s="14"/>
     </row>
-    <row r="4" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" s="3" customFormat="1">
       <c r="A4" s="37"/>
       <c r="B4" s="26"/>
       <c r="C4" s="27"/>
@@ -7229,7 +7213,7 @@
       <c r="AY4" s="14"/>
       <c r="AZ4" s="14"/>
     </row>
-    <row r="5" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" s="3" customFormat="1">
       <c r="A5" s="37"/>
       <c r="B5" s="26"/>
       <c r="C5" s="28"/>
@@ -7283,7 +7267,7 @@
       <c r="AY5" s="14"/>
       <c r="AZ5" s="14"/>
     </row>
-    <row r="6" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" s="3" customFormat="1">
       <c r="A6" s="32"/>
       <c r="B6" s="26"/>
       <c r="C6" s="23"/>
@@ -7337,7 +7321,7 @@
       <c r="AY6" s="14"/>
       <c r="AZ6" s="14"/>
     </row>
-    <row r="7" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" s="3" customFormat="1">
       <c r="A7" s="32"/>
       <c r="B7" s="26"/>
       <c r="C7" s="23"/>
@@ -7391,7 +7375,7 @@
       <c r="AY7" s="14"/>
       <c r="AZ7" s="14"/>
     </row>
-    <row r="8" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" s="3" customFormat="1">
       <c r="A8" s="32"/>
       <c r="B8" s="26"/>
       <c r="C8" s="28"/>
@@ -7445,7 +7429,7 @@
       <c r="AY8" s="14"/>
       <c r="AZ8" s="14"/>
     </row>
-    <row r="9" spans="1:52" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="27"/>
@@ -7499,7 +7483,7 @@
       <c r="AY9" s="14"/>
       <c r="AZ9" s="14"/>
     </row>
-    <row r="10" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" s="3" customFormat="1">
       <c r="A10" s="34"/>
       <c r="B10" s="33"/>
       <c r="C10" s="28"/>
@@ -7553,7 +7537,7 @@
       <c r="AY10" s="14"/>
       <c r="AZ10" s="14"/>
     </row>
-    <row r="11" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" s="3" customFormat="1">
       <c r="A11" s="34"/>
       <c r="B11" s="33"/>
       <c r="C11" s="28"/>
@@ -7607,7 +7591,7 @@
       <c r="AY11" s="14"/>
       <c r="AZ11" s="14"/>
     </row>
-    <row r="12" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" s="3" customFormat="1">
       <c r="A12" s="35"/>
       <c r="B12" s="33"/>
       <c r="C12" s="28"/>
@@ -7661,7 +7645,7 @@
       <c r="AY12" s="14"/>
       <c r="AZ12" s="14"/>
     </row>
-    <row r="13" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" s="3" customFormat="1">
       <c r="A13" s="34"/>
       <c r="B13" s="33"/>
       <c r="C13" s="23"/>
@@ -7715,7 +7699,7 @@
       <c r="AY13" s="14"/>
       <c r="AZ13" s="14"/>
     </row>
-    <row r="14" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" s="3" customFormat="1">
       <c r="A14" s="34"/>
       <c r="B14" s="33"/>
       <c r="C14" s="23"/>
@@ -7769,7 +7753,7 @@
       <c r="AY14" s="14"/>
       <c r="AZ14" s="14"/>
     </row>
-    <row r="15" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" s="3" customFormat="1">
       <c r="A15" s="35"/>
       <c r="B15" s="33"/>
       <c r="C15" s="28"/>
@@ -7839,7 +7823,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习计划每日进展.xlsx
+++ b/学习计划每日进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="211">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -883,6 +883,18 @@
   </si>
   <si>
     <t>签个到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天看了下DMA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1771,7 +1783,7 @@
   <dimension ref="A1:AZ125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6344,14 +6356,28 @@
       <c r="I73" s="4"/>
     </row>
     <row r="74" spans="1:52">
-      <c r="A74" s="8"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
+      <c r="A74" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="7">
+        <v>42604.786064814813</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
+      <c r="H74" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="1:52">
